--- a/outdata/use_imp2014.xlsx
+++ b/outdata/use_imp2014.xlsx
@@ -71370,4 +71370,196 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x0101001B5D64AB0C21E743B0946431DB85BECD" ma:contentTypeVersion="4" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="e8891e6613dc1e274f3bfe40586e2186">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d070ba9-5dd2-4ec6-9127-c85124792d21" xmlns:ns3="f6d38416-0c3a-40f5-a98e-64d30975dddf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c8a6f819ee994c46a24c3d62cafa1a62" ns2:_="" ns3:_="">
+    <xsd:import namespace="5d070ba9-5dd2-4ec6-9127-c85124792d21"/>
+    <xsd:import namespace="f6d38416-0c3a-40f5-a98e-64d30975dddf"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5d070ba9-5dd2-4ec6-9127-c85124792d21" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f6d38416-0c3a-40f5-a98e-64d30975dddf" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Jaettu" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Jakamisen tiedot" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Sisältölaji"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Otsikko"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35045BA2-5BAC-4278-955A-B805DFCAD9DF}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76BF84F2-7199-4309-AE11-6050B94B3DA1}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E651146D-8838-421C-B79D-62DB57608FEA}"/>
 </file>
--- a/outdata/use_imp2014.xlsx
+++ b/outdata/use_imp2014.xlsx
@@ -71553,13 +71553,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35045BA2-5BAC-4278-955A-B805DFCAD9DF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDFBB462-4A0A-41B7-A9E3-8831864E07C3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76BF84F2-7199-4309-AE11-6050B94B3DA1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E1247E0-8276-4584-BD17-3CEE835EF63C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E651146D-8838-421C-B79D-62DB57608FEA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A9BB35A-1D30-47E9-A701-94068F8D7726}"/>
 </file>
--- a/outdata/use_imp2014.xlsx
+++ b/outdata/use_imp2014.xlsx
@@ -1086,13 +1086,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>56.49082946777344</v>
+        <v>56.49081039428711</v>
       </c>
       <c r="AK5" s="1">
-        <v>968.1187591552734</v>
+        <v>968.1187400817871</v>
       </c>
       <c r="AL5" s="1">
-        <v>1382.201858520508</v>
+        <v>1382.201839447021</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -1202,13 +1202,13 @@
         <v>0.6862882971763611</v>
       </c>
       <c r="AJ6" s="1">
-        <v>59.81049728393555</v>
+        <v>59.81052017211914</v>
       </c>
       <c r="AK6" s="1">
-        <v>732.3173407912254</v>
+        <v>732.317363679409</v>
       </c>
       <c r="AL6" s="1">
-        <v>906.8796271681786</v>
+        <v>906.8796500563622</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -1550,13 +1550,13 @@
         <v>175.9665679931641</v>
       </c>
       <c r="AJ9" s="1">
-        <v>1401.311645507812</v>
+        <v>1401.3115234375</v>
       </c>
       <c r="AK9" s="1">
-        <v>2365.98713684082</v>
+        <v>2365.987014770508</v>
       </c>
       <c r="AL9" s="1">
-        <v>5180.49299621582</v>
+        <v>5180.492874145508</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -1924,19 +1924,19 @@
         <v>0.8379822373390198</v>
       </c>
       <c r="F13" s="1">
-        <v>0.02475765347480774</v>
+        <v>0.02475765533745289</v>
       </c>
       <c r="G13" s="1">
         <v>0.02025590278208256</v>
       </c>
       <c r="H13" s="1">
-        <v>0.8707942366600037</v>
+        <v>0.8707942962646484</v>
       </c>
       <c r="I13" s="1">
         <v>2.929588794708252</v>
       </c>
       <c r="J13" s="1">
-        <v>1.659726500511169</v>
+        <v>1.659726619720459</v>
       </c>
       <c r="K13" s="1">
         <v>5.889369964599609</v>
@@ -1945,10 +1945,10 @@
         <v>15.83885478973389</v>
       </c>
       <c r="M13" s="1">
-        <v>292.7454223632812</v>
+        <v>292.7454528808594</v>
       </c>
       <c r="N13" s="1">
-        <v>7.769270420074463</v>
+        <v>7.769270896911621</v>
       </c>
       <c r="O13" s="1">
         <v>19.39727210998535</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>475.6007995605469</v>
+        <v>475.6008605957031</v>
       </c>
       <c r="AG13" s="1">
         <v>52.32485198974609</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>838.1635131835938</v>
+        <v>838.16357421875</v>
       </c>
       <c r="AK13" s="1">
-        <v>1280.310234069824</v>
+        <v>1280.31029510498</v>
       </c>
       <c r="AL13" s="1">
-        <v>1755.911033630371</v>
+        <v>1755.911155700684</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -2260,7 +2260,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>0.453621506690979</v>
+        <v>0.4536214768886566</v>
       </c>
       <c r="C16" s="1">
         <v>0.08102187514305115</v>
@@ -2275,7 +2275,7 @@
         <v>0.3949548602104187</v>
       </c>
       <c r="G16" s="1">
-        <v>0.4344072639942169</v>
+        <v>0.4344072341918945</v>
       </c>
       <c r="H16" s="1">
         <v>13.86820602416992</v>
@@ -2329,7 +2329,7 @@
         <v>31.805419921875</v>
       </c>
       <c r="Y16" s="1">
-        <v>4.660645484924316</v>
+        <v>4.660645008087158</v>
       </c>
       <c r="Z16" s="1">
         <v>30.71473693847656</v>
@@ -2344,7 +2344,7 @@
         <v>13.21339511871338</v>
       </c>
       <c r="AD16" s="1">
-        <v>23.02581596374512</v>
+        <v>23.02581405639648</v>
       </c>
       <c r="AE16" s="1">
         <v>0</v>
@@ -2362,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>28.13505172729492</v>
+        <v>28.13504791259766</v>
       </c>
       <c r="AK16" s="1">
-        <v>102.2930105924606</v>
+        <v>102.2930067777634</v>
       </c>
       <c r="AL16" s="1">
-        <v>561.9606131315231</v>
+        <v>561.9606093168259</v>
       </c>
     </row>
     <row r="17" spans="1:38">
@@ -4116,7 +4116,7 @@
         <v>37</v>
       </c>
       <c r="B32" s="1">
-        <v>32.71224593419265</v>
+        <v>32.71224590439033</v>
       </c>
       <c r="C32" s="1">
         <v>8.863358350436783</v>
@@ -4128,19 +4128,19 @@
         <v>376.1502349131915</v>
       </c>
       <c r="F32" s="1">
-        <v>35.53000335409524</v>
+        <v>35.53000335595789</v>
       </c>
       <c r="G32" s="1">
-        <v>8.621588993242767</v>
+        <v>8.621588963440445</v>
       </c>
       <c r="H32" s="1">
-        <v>212.2757388369937</v>
+        <v>212.2757388965983</v>
       </c>
       <c r="I32" s="1">
         <v>5001.495357067557</v>
       </c>
       <c r="J32" s="1">
-        <v>121.264872153115</v>
+        <v>121.2648722723243</v>
       </c>
       <c r="K32" s="1">
         <v>470.068983101839</v>
@@ -4149,10 +4149,10 @@
         <v>1201.03806246561</v>
       </c>
       <c r="M32" s="1">
-        <v>591.3900512689142</v>
+        <v>591.3900817864924</v>
       </c>
       <c r="N32" s="1">
-        <v>45.23122951081132</v>
+        <v>45.23122998764848</v>
       </c>
       <c r="O32" s="1">
         <v>131.9751686049131</v>
@@ -4185,7 +4185,7 @@
         <v>121.8155163911288</v>
       </c>
       <c r="Y32" s="1">
-        <v>640.1047228065872</v>
+        <v>640.1047223297501</v>
       </c>
       <c r="Z32" s="1">
         <v>342.105974551203</v>
@@ -4200,13 +4200,13 @@
         <v>438.7035844123166</v>
       </c>
       <c r="AD32" s="1">
-        <v>299.980339752743</v>
+        <v>299.9803378453944</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>15961.381082654</v>
+        <v>15961.38114368916</v>
       </c>
       <c r="AG32" s="1">
         <v>4800.852282032138</v>
@@ -4218,10 +4218,10 @@
         <v>283.7679125852883</v>
       </c>
       <c r="AJ32" s="1">
-        <v>5925.446556310228</v>
+        <v>5925.446495275071</v>
       </c>
       <c r="AK32" s="1">
-        <v>12897.04133634159</v>
+        <v>12897.04127530643</v>
       </c>
       <c r="AL32" s="1">
         <v>28858.42241899559</v>
@@ -4811,13 +4811,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>3.15628719329834</v>
+        <v>3.156287670135498</v>
       </c>
       <c r="AK5" s="1">
-        <v>119.748236656189</v>
+        <v>119.7482371330261</v>
       </c>
       <c r="AL5" s="1">
-        <v>171.8443822860718</v>
+        <v>171.8443827629089</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -4927,13 +4927,13 @@
         <v>0.104522205889225</v>
       </c>
       <c r="AJ6" s="1">
-        <v>3.276870727539062</v>
+        <v>3.276870012283325</v>
       </c>
       <c r="AK6" s="1">
-        <v>87.84097567945719</v>
+        <v>87.84097496420145</v>
       </c>
       <c r="AL6" s="1">
-        <v>111.0560425892472</v>
+        <v>111.0560418739915</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -5275,13 +5275,13 @@
         <v>26.49214744567871</v>
       </c>
       <c r="AJ9" s="1">
-        <v>76.53047943115234</v>
+        <v>76.53047180175781</v>
       </c>
       <c r="AK9" s="1">
-        <v>201.4084300994873</v>
+        <v>201.4084224700928</v>
       </c>
       <c r="AL9" s="1">
-        <v>412.7481212615967</v>
+        <v>412.7481136322021</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -5391,13 +5391,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>1.841371536254883</v>
+        <v>1.841371774673462</v>
       </c>
       <c r="AK10" s="1">
-        <v>4.223820686340332</v>
+        <v>4.223820924758911</v>
       </c>
       <c r="AL10" s="1">
-        <v>24.56268787384033</v>
+        <v>24.56268811225891</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -7943,13 +7943,13 @@
         <v>43.26606130972505</v>
       </c>
       <c r="AJ32" s="1">
-        <v>327.4567775594423</v>
+        <v>327.4567699300478</v>
       </c>
       <c r="AK32" s="1">
-        <v>1157.346322858104</v>
+        <v>1157.346315228709</v>
       </c>
       <c r="AL32" s="1">
-        <v>2333.508963369046</v>
+        <v>2333.508955739651</v>
       </c>
     </row>
   </sheetData>
@@ -8553,25 +8553,25 @@
         <v>0.01380502805113792</v>
       </c>
       <c r="C6" s="1">
-        <v>0.03478530794382095</v>
+        <v>0.03478530421853065</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0.06438912451267242</v>
+        <v>0.06438910961151123</v>
       </c>
       <c r="F6" s="1">
-        <v>3.127163171768188</v>
+        <v>3.127162933349609</v>
       </c>
       <c r="G6" s="1">
-        <v>0.03023857250809669</v>
+        <v>0.03023857064545155</v>
       </c>
       <c r="H6" s="1">
         <v>0.08570607006549835</v>
       </c>
       <c r="I6" s="1">
-        <v>0.1001124083995819</v>
+        <v>0.1001124009490013</v>
       </c>
       <c r="J6" s="1">
         <v>0.1794126629829407</v>
@@ -8580,49 +8580,49 @@
         <v>0.02133369073271751</v>
       </c>
       <c r="L6" s="1">
-        <v>0.01311751827597618</v>
+        <v>0.01311751734465361</v>
       </c>
       <c r="M6" s="1">
         <v>0.06699125468730927</v>
       </c>
       <c r="N6" s="1">
-        <v>0.00383599242195487</v>
+        <v>0.003835992189124227</v>
       </c>
       <c r="O6" s="1">
         <v>0.2878094911575317</v>
       </c>
       <c r="P6" s="1">
-        <v>0.7845706939697266</v>
+        <v>0.7845706343650818</v>
       </c>
       <c r="Q6" s="1">
         <v>0.6219985485076904</v>
       </c>
       <c r="R6" s="1">
-        <v>0.7147639989852905</v>
+        <v>0.7147639393806458</v>
       </c>
       <c r="S6" s="1">
-        <v>0.2258204221725464</v>
+        <v>0.2258204072713852</v>
       </c>
       <c r="T6" s="1">
-        <v>0.04472177103161812</v>
+        <v>0.04472176730632782</v>
       </c>
       <c r="U6" s="1">
-        <v>0.1120527237653732</v>
+        <v>0.1120527163147926</v>
       </c>
       <c r="V6" s="1">
         <v>0.1424525827169418</v>
       </c>
       <c r="W6" s="1">
-        <v>0.08677957952022552</v>
+        <v>0.08677956461906433</v>
       </c>
       <c r="X6" s="1">
-        <v>0.0113745704293251</v>
+        <v>0.01137456949800253</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.3628512918949127</v>
+        <v>0.3628512620925903</v>
       </c>
       <c r="Z6" s="1">
-        <v>0.2781170606613159</v>
+        <v>0.2781170308589935</v>
       </c>
       <c r="AA6" s="1">
         <v>0.3725928962230682</v>
@@ -8631,16 +8631,16 @@
         <v>0.1214971840381622</v>
       </c>
       <c r="AC6" s="1">
-        <v>0.8749608397483826</v>
+        <v>0.8749607801437378</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.3765473365783691</v>
+        <v>0.3765473067760468</v>
       </c>
       <c r="AE6" s="1">
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>9.159801483154297</v>
+        <v>9.15980052947998</v>
       </c>
       <c r="AG6" s="1">
         <v>53.946044921875</v>
@@ -8652,13 +8652,13 @@
         <v>0.06927786767482758</v>
       </c>
       <c r="AJ6" s="1">
-        <v>2.416851997375488</v>
+        <v>2.416850566864014</v>
       </c>
       <c r="AK6" s="1">
-        <v>56.56156043708324</v>
+        <v>56.56155900657177</v>
       </c>
       <c r="AL6" s="1">
-        <v>65.72136192023754</v>
+        <v>65.72135953605175</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -8714,7 +8714,7 @@
         <v>4.512591361999512</v>
       </c>
       <c r="R7" s="1">
-        <v>0.04858274385333061</v>
+        <v>0.04858274012804031</v>
       </c>
       <c r="S7" s="1">
         <v>0.005114855244755745</v>
@@ -8768,13 +8768,13 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>2.419111728668213</v>
+        <v>2.419111490249634</v>
       </c>
       <c r="AK7" s="1">
-        <v>2.530076779425144</v>
+        <v>2.530076541006565</v>
       </c>
       <c r="AL7" s="1">
-        <v>13.64103201776743</v>
+        <v>13.64103177934885</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -8904,7 +8904,7 @@
         <v>5.166936874389648</v>
       </c>
       <c r="D9" s="1">
-        <v>3.835927963256836</v>
+        <v>3.835927724838257</v>
       </c>
       <c r="E9" s="1">
         <v>5.341990947723389</v>
@@ -8916,7 +8916,7 @@
         <v>5.215923309326172</v>
       </c>
       <c r="H9" s="1">
-        <v>14.79662227630615</v>
+        <v>14.79662132263184</v>
       </c>
       <c r="I9" s="1">
         <v>19.17167854309082</v>
@@ -8949,10 +8949,10 @@
         <v>1.368138313293457</v>
       </c>
       <c r="S9" s="1">
-        <v>8.103580474853516</v>
+        <v>8.103579521179199</v>
       </c>
       <c r="T9" s="1">
-        <v>0.03092974238097668</v>
+        <v>0.03092974051833153</v>
       </c>
       <c r="U9" s="1">
         <v>0.0860406830906868</v>
@@ -8964,7 +8964,7 @@
         <v>1.393033385276794</v>
       </c>
       <c r="X9" s="1">
-        <v>2.222372531890869</v>
+        <v>2.22237229347229</v>
       </c>
       <c r="Y9" s="1">
         <v>0.1657772213220596</v>
@@ -8979,7 +8979,7 @@
         <v>0.896770179271698</v>
       </c>
       <c r="AC9" s="1">
-        <v>19.68794631958008</v>
+        <v>19.68794441223145</v>
       </c>
       <c r="AD9" s="1">
         <v>1.854185104370117</v>
@@ -8991,7 +8991,7 @@
         <v>129.3182678222656</v>
       </c>
       <c r="AG9" s="1">
-        <v>63.42651748657227</v>
+        <v>63.426513671875</v>
       </c>
       <c r="AH9" s="1">
         <v>0</v>
@@ -9000,13 +9000,13 @@
         <v>17.6645679473877</v>
       </c>
       <c r="AJ9" s="1">
-        <v>56.53358459472656</v>
+        <v>56.5335693359375</v>
       </c>
       <c r="AK9" s="1">
-        <v>137.6246700286865</v>
+        <v>137.6246509552002</v>
       </c>
       <c r="AL9" s="1">
-        <v>266.9429378509521</v>
+        <v>266.9429187774658</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -9464,13 +9464,13 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>33.89181137084961</v>
+        <v>33.89180755615234</v>
       </c>
       <c r="AK13" s="1">
-        <v>68.27951431274414</v>
+        <v>68.27951049804688</v>
       </c>
       <c r="AL13" s="1">
-        <v>120.1307678222656</v>
+        <v>120.1307640075684</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -9594,13 +9594,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>0.1038975715637207</v>
+        <v>0.1038975641131401</v>
       </c>
       <c r="C15" s="1">
-        <v>0.01263377256691456</v>
+        <v>0.01263377163559198</v>
       </c>
       <c r="D15" s="1">
-        <v>0.09686807543039322</v>
+        <v>0.09686806797981262</v>
       </c>
       <c r="E15" s="1">
         <v>0.1688499450683594</v>
@@ -9618,25 +9618,25 @@
         <v>0.05494916439056396</v>
       </c>
       <c r="J15" s="1">
-        <v>0.05255128443241119</v>
+        <v>0.0525512807071209</v>
       </c>
       <c r="K15" s="1">
         <v>0.1066505685448647</v>
       </c>
       <c r="L15" s="1">
-        <v>0.07104504108428955</v>
+        <v>0.07104503363370895</v>
       </c>
       <c r="M15" s="1">
-        <v>0.1623941361904144</v>
+        <v>0.1623941212892532</v>
       </c>
       <c r="N15" s="1">
         <v>0.006234774366021156</v>
       </c>
       <c r="O15" s="1">
-        <v>1.109598398208618</v>
+        <v>1.109598278999329</v>
       </c>
       <c r="P15" s="1">
-        <v>0.9888057708740234</v>
+        <v>0.9888056516647339</v>
       </c>
       <c r="Q15" s="1">
         <v>1.579724311828613</v>
@@ -9645,10 +9645,10 @@
         <v>0.1354388296604156</v>
       </c>
       <c r="S15" s="1">
-        <v>0.2275441586971283</v>
+        <v>0.2275441437959671</v>
       </c>
       <c r="T15" s="1">
-        <v>0.09821723401546478</v>
+        <v>0.09821722656488419</v>
       </c>
       <c r="U15" s="1">
         <v>0.05605171620845795</v>
@@ -9657,10 +9657,10 @@
         <v>0.2489638179540634</v>
       </c>
       <c r="W15" s="1">
-        <v>0.003272937843576074</v>
+        <v>0.00327293761074543</v>
       </c>
       <c r="X15" s="1">
-        <v>0.002598310355097055</v>
+        <v>0.002598310122266412</v>
       </c>
       <c r="Y15" s="1">
         <v>0.2010258734226227</v>
@@ -9672,7 +9672,7 @@
         <v>0.8823012113571167</v>
       </c>
       <c r="AB15" s="1">
-        <v>0.3666465580463409</v>
+        <v>0.3666465282440186</v>
       </c>
       <c r="AC15" s="1">
         <v>4.953931331634521</v>
@@ -9696,13 +9696,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>3.267470121383667</v>
+        <v>3.267468929290771</v>
       </c>
       <c r="AK15" s="1">
-        <v>29.47092127799988</v>
+        <v>29.47092008590698</v>
       </c>
       <c r="AL15" s="1">
-        <v>42.65277552604675</v>
+        <v>42.65277433395386</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -11566,100 +11566,100 @@
         <v>37</v>
       </c>
       <c r="B32" s="1">
-        <v>21.99364202025663</v>
+        <v>21.99364201280605</v>
       </c>
       <c r="C32" s="1">
-        <v>13.36637164303966</v>
+        <v>13.36637163838304</v>
       </c>
       <c r="D32" s="1">
-        <v>22.16833059280907</v>
+        <v>22.16833034693991</v>
       </c>
       <c r="E32" s="1">
-        <v>48.33282790551675</v>
+        <v>48.33282789061559</v>
       </c>
       <c r="F32" s="1">
-        <v>4.75868186820162</v>
+        <v>4.758681629783041</v>
       </c>
       <c r="G32" s="1">
-        <v>30.07852599113539</v>
+        <v>30.07852598927275</v>
       </c>
       <c r="H32" s="1">
-        <v>40.47929212317831</v>
+        <v>40.47929116950399</v>
       </c>
       <c r="I32" s="1">
-        <v>69.84693217751465</v>
+        <v>69.84693217006406</v>
       </c>
       <c r="J32" s="1">
-        <v>10.52842828212943</v>
+        <v>10.52842827840414</v>
       </c>
       <c r="K32" s="1">
         <v>37.16933302992038</v>
       </c>
       <c r="L32" s="1">
-        <v>14.70231814524141</v>
+        <v>14.7023181368595</v>
       </c>
       <c r="M32" s="1">
-        <v>82.64996431914187</v>
+        <v>82.64996430424071</v>
       </c>
       <c r="N32" s="1">
-        <v>2.001311028354337</v>
+        <v>2.001311028121506</v>
       </c>
       <c r="O32" s="1">
-        <v>11.14976638510416</v>
+        <v>11.14976626589487</v>
       </c>
       <c r="P32" s="1">
-        <v>53.66484347535243</v>
+        <v>53.66484329653849</v>
       </c>
       <c r="Q32" s="1">
         <v>66.32016288093132</v>
       </c>
       <c r="R32" s="1">
-        <v>30.00165015900711</v>
+        <v>30.00165009567718</v>
       </c>
       <c r="S32" s="1">
-        <v>19.40904857569058</v>
+        <v>19.40904759221394</v>
       </c>
       <c r="T32" s="1">
-        <v>8.281172361845165</v>
+        <v>8.281172348806649</v>
       </c>
       <c r="U32" s="1">
-        <v>13.96037188447372</v>
+        <v>13.96037187702314</v>
       </c>
       <c r="V32" s="1">
         <v>7.328366296476815</v>
       </c>
       <c r="W32" s="1">
-        <v>10.07887726918125</v>
+        <v>10.07887725404726</v>
       </c>
       <c r="X32" s="1">
-        <v>9.997454207305054</v>
+        <v>9.997453967722322</v>
       </c>
       <c r="Y32" s="1">
-        <v>11.28111657492013</v>
+        <v>11.28111654511781</v>
       </c>
       <c r="Z32" s="1">
-        <v>7.031259231777312</v>
+        <v>7.03125920197499</v>
       </c>
       <c r="AA32" s="1">
         <v>24.16550336103319</v>
       </c>
       <c r="AB32" s="1">
-        <v>8.845140814288243</v>
+        <v>8.84514078448592</v>
       </c>
       <c r="AC32" s="1">
-        <v>41.70433050006613</v>
+        <v>41.70432853311286</v>
       </c>
       <c r="AD32" s="1">
-        <v>13.66847315342966</v>
+        <v>13.66847312362734</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>734.9634826139663</v>
+        <v>734.963481660292</v>
       </c>
       <c r="AG32" s="1">
-        <v>391.0418533801858</v>
+        <v>391.0418495654885</v>
       </c>
       <c r="AH32" s="1">
         <v>115.7701985761523</v>
@@ -11668,13 +11668,13 @@
         <v>28.83027963666245</v>
       </c>
       <c r="AJ32" s="1">
-        <v>241.5536789722082</v>
+        <v>241.5536570376989</v>
       </c>
       <c r="AK32" s="1">
-        <v>777.1960105652088</v>
+        <v>777.1959848160022</v>
       </c>
       <c r="AL32" s="1">
-        <v>1512.159493179175</v>
+        <v>1512.159466476294</v>
       </c>
     </row>
   </sheetData>
@@ -11913,13 +11913,13 @@
         <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>4.214562892913818</v>
+        <v>4.214563846588135</v>
       </c>
       <c r="AK2" s="1">
-        <v>30.29885593056679</v>
+        <v>30.2988568842411</v>
       </c>
       <c r="AL2" s="1">
-        <v>49.31703677773476</v>
+        <v>49.31703773140907</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -12168,7 +12168,7 @@
         <v>0.0002430877793813124</v>
       </c>
       <c r="E5" s="1">
-        <v>9.8392333984375</v>
+        <v>9.839234352111816</v>
       </c>
       <c r="F5" s="1">
         <v>0.009998241439461708</v>
@@ -12180,7 +12180,7 @@
         <v>1.970207095146179</v>
       </c>
       <c r="I5" s="1">
-        <v>1.678123235702515</v>
+        <v>1.678123354911804</v>
       </c>
       <c r="J5" s="1">
         <v>0.002973514376208186</v>
@@ -12207,16 +12207,16 @@
         <v>0.4459401369094849</v>
       </c>
       <c r="R5" s="1">
-        <v>0.1215845346450806</v>
+        <v>0.1215845420956612</v>
       </c>
       <c r="S5" s="1">
         <v>0.4808228611946106</v>
       </c>
       <c r="T5" s="1">
-        <v>9.353870391845703</v>
+        <v>9.35387134552002</v>
       </c>
       <c r="U5" s="1">
-        <v>0.5006271004676819</v>
+        <v>0.5006271600723267</v>
       </c>
       <c r="V5" s="1">
         <v>0.2630577087402344</v>
@@ -12228,16 +12228,16 @@
         <v>0.08070342242717743</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.8086760640144348</v>
+        <v>0.8086761236190796</v>
       </c>
       <c r="Z5" s="1">
         <v>0.8693143129348755</v>
       </c>
       <c r="AA5" s="1">
-        <v>1.105937480926514</v>
+        <v>1.105937600135803</v>
       </c>
       <c r="AB5" s="1">
-        <v>0.8569372892379761</v>
+        <v>0.8569373488426208</v>
       </c>
       <c r="AC5" s="1">
         <v>1.859623312950134</v>
@@ -12261,13 +12261,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>5.496500015258789</v>
+        <v>5.496500968933105</v>
       </c>
       <c r="AK5" s="1">
-        <v>133.1051578521729</v>
+        <v>133.1051588058472</v>
       </c>
       <c r="AL5" s="1">
-        <v>168.9080677032471</v>
+        <v>168.9080686569214</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -12377,13 +12377,13 @@
         <v>0.116274006664753</v>
       </c>
       <c r="AJ6" s="1">
-        <v>5.8257737159729</v>
+        <v>5.825769424438477</v>
       </c>
       <c r="AK6" s="1">
-        <v>99.35222401469946</v>
+        <v>99.35221972316504</v>
       </c>
       <c r="AL6" s="1">
-        <v>112.4269682392478</v>
+        <v>112.4269639477134</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -12623,7 +12623,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>8.62043571472168</v>
+        <v>8.620434761047363</v>
       </c>
       <c r="C9" s="1">
         <v>5.843364715576172</v>
@@ -12668,10 +12668,10 @@
         <v>9.160401344299316</v>
       </c>
       <c r="Q9" s="1">
-        <v>22.91946601867676</v>
+        <v>22.91946411132812</v>
       </c>
       <c r="R9" s="1">
-        <v>2.696527719497681</v>
+        <v>2.696527481079102</v>
       </c>
       <c r="S9" s="1">
         <v>14.87049102783203</v>
@@ -12680,13 +12680,13 @@
         <v>0.07527879625558853</v>
       </c>
       <c r="U9" s="1">
-        <v>0.2435884922742844</v>
+        <v>0.2435884773731232</v>
       </c>
       <c r="V9" s="1">
         <v>0.4976317286491394</v>
       </c>
       <c r="W9" s="1">
-        <v>2.45538592338562</v>
+        <v>2.455385684967041</v>
       </c>
       <c r="X9" s="1">
         <v>3.851635217666626</v>
@@ -12698,7 +12698,7 @@
         <v>3.019437789916992</v>
       </c>
       <c r="AA9" s="1">
-        <v>3.828159332275391</v>
+        <v>3.828159093856812</v>
       </c>
       <c r="AB9" s="1">
         <v>1.565702557563782</v>
@@ -12725,13 +12725,13 @@
         <v>29.73959732055664</v>
       </c>
       <c r="AJ9" s="1">
-        <v>135.4211273193359</v>
+        <v>135.4210968017578</v>
       </c>
       <c r="AK9" s="1">
-        <v>275.0754814147949</v>
+        <v>275.0754508972168</v>
       </c>
       <c r="AL9" s="1">
-        <v>490.7288627624512</v>
+        <v>490.728832244873</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -13073,13 +13073,13 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>92.71089172363281</v>
+        <v>92.71089935302734</v>
       </c>
       <c r="AK12" s="1">
-        <v>193.4030227661133</v>
+        <v>193.4030303955078</v>
       </c>
       <c r="AL12" s="1">
-        <v>280.033447265625</v>
+        <v>280.0334548950195</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -13189,13 +13189,13 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>80.8143310546875</v>
+        <v>80.81432342529297</v>
       </c>
       <c r="AK13" s="1">
-        <v>127.634464263916</v>
+        <v>127.6344566345215</v>
       </c>
       <c r="AL13" s="1">
-        <v>227.8646812438965</v>
+        <v>227.864673614502</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -13305,13 +13305,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>33.43353271484375</v>
+        <v>33.43352890014648</v>
       </c>
       <c r="AK14" s="1">
-        <v>148.1435470581055</v>
+        <v>148.1435432434082</v>
       </c>
       <c r="AL14" s="1">
-        <v>178.9823608398438</v>
+        <v>178.9823570251465</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -13322,28 +13322,28 @@
         <v>0.1012865304946899</v>
       </c>
       <c r="C15" s="1">
-        <v>0.01428997982293367</v>
+        <v>0.0142899788916111</v>
       </c>
       <c r="D15" s="1">
-        <v>0.06765182316303253</v>
+        <v>0.06765181571245193</v>
       </c>
       <c r="E15" s="1">
         <v>0.1201204061508179</v>
       </c>
       <c r="F15" s="1">
-        <v>0.08116159588098526</v>
+        <v>0.08116158843040466</v>
       </c>
       <c r="G15" s="1">
         <v>0.1349882036447525</v>
       </c>
       <c r="H15" s="1">
-        <v>1.734070181846619</v>
+        <v>1.734070062637329</v>
       </c>
       <c r="I15" s="1">
-        <v>0.09107601642608643</v>
+        <v>0.09107600897550583</v>
       </c>
       <c r="J15" s="1">
-        <v>0.0527665838599205</v>
+        <v>0.0527665801346302</v>
       </c>
       <c r="K15" s="1">
         <v>0.1637937128543854</v>
@@ -13358,13 +13358,13 @@
         <v>0.07135504484176636</v>
       </c>
       <c r="O15" s="1">
-        <v>2.075719833374023</v>
+        <v>2.075719594955444</v>
       </c>
       <c r="P15" s="1">
         <v>1.658142566680908</v>
       </c>
       <c r="Q15" s="1">
-        <v>2.600115060806274</v>
+        <v>2.600114822387695</v>
       </c>
       <c r="R15" s="1">
         <v>0.2669822871685028</v>
@@ -13373,13 +13373,13 @@
         <v>0.417572021484375</v>
       </c>
       <c r="T15" s="1">
-        <v>0.2391161620616913</v>
+        <v>0.2391161471605301</v>
       </c>
       <c r="U15" s="1">
         <v>0.1587364673614502</v>
       </c>
       <c r="V15" s="1">
-        <v>0.3496613204479218</v>
+        <v>0.3496612906455994</v>
       </c>
       <c r="W15" s="1">
         <v>0.005773826502263546</v>
@@ -13394,10 +13394,10 @@
         <v>0.4741547107696533</v>
       </c>
       <c r="AA15" s="1">
-        <v>1.339354872703552</v>
+        <v>1.339354753494263</v>
       </c>
       <c r="AB15" s="1">
-        <v>0.6405488252639771</v>
+        <v>0.6405487656593323</v>
       </c>
       <c r="AC15" s="1">
         <v>8.366625785827637</v>
@@ -13409,7 +13409,7 @@
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>23.02299880981445</v>
+        <v>23.02299690246582</v>
       </c>
       <c r="AG15" s="1">
         <v>40.34371948242188</v>
@@ -13421,13 +13421,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>7.815532684326172</v>
+        <v>7.815531730651855</v>
       </c>
       <c r="AK15" s="1">
-        <v>52.35476779937744</v>
+        <v>52.35476684570312</v>
       </c>
       <c r="AL15" s="1">
-        <v>75.37776660919189</v>
+        <v>75.37776374816895</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -13537,13 +13537,13 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>2.745638847351074</v>
+        <v>2.745639085769653</v>
       </c>
       <c r="AK16" s="1">
-        <v>13.18785899877548</v>
+        <v>13.18785923719406</v>
       </c>
       <c r="AL16" s="1">
-        <v>66.76723521947861</v>
+        <v>66.76723545789719</v>
       </c>
     </row>
     <row r="17" spans="1:38">
@@ -15291,31 +15291,31 @@
         <v>37</v>
       </c>
       <c r="B32" s="1">
-        <v>21.32967665278511</v>
+        <v>21.32967569911079</v>
       </c>
       <c r="C32" s="1">
-        <v>15.02650154947878</v>
+        <v>15.02650154854746</v>
       </c>
       <c r="D32" s="1">
-        <v>15.35971931828408</v>
+        <v>15.3597193108335</v>
       </c>
       <c r="E32" s="1">
-        <v>34.10619013955875</v>
+        <v>34.10619109323306</v>
       </c>
       <c r="F32" s="1">
-        <v>2.891669242720582</v>
+        <v>2.891669235270001</v>
       </c>
       <c r="G32" s="1">
         <v>27.67021297938118</v>
       </c>
       <c r="H32" s="1">
-        <v>118.8447734042929</v>
+        <v>118.8447732850836</v>
       </c>
       <c r="I32" s="1">
-        <v>114.9100296944889</v>
+        <v>114.9100298062476</v>
       </c>
       <c r="J32" s="1">
-        <v>10.50647424531962</v>
+        <v>10.50647424159433</v>
       </c>
       <c r="K32" s="1">
         <v>56.66664127543118</v>
@@ -15330,43 +15330,43 @@
         <v>22.83216979487952</v>
       </c>
       <c r="O32" s="1">
-        <v>20.79523232977954</v>
+        <v>20.79523209136096</v>
       </c>
       <c r="P32" s="1">
         <v>89.23074004117461</v>
       </c>
       <c r="Q32" s="1">
-        <v>108.7660038673803</v>
+        <v>108.7660017216131</v>
       </c>
       <c r="R32" s="1">
-        <v>58.62674064733437</v>
+        <v>58.62674041636637</v>
       </c>
       <c r="S32" s="1">
         <v>35.44031897852074</v>
       </c>
       <c r="T32" s="1">
-        <v>19.91210255958867</v>
+        <v>19.91210349836183</v>
       </c>
       <c r="U32" s="1">
-        <v>39.19801594482851</v>
+        <v>39.198015989532</v>
       </c>
       <c r="V32" s="1">
-        <v>10.21449358264726</v>
+        <v>10.21449355284494</v>
       </c>
       <c r="W32" s="1">
-        <v>17.60919227910199</v>
+        <v>17.60919204068341</v>
       </c>
       <c r="X32" s="1">
         <v>17.18556066370365</v>
       </c>
       <c r="Y32" s="1">
-        <v>37.97628225220387</v>
+        <v>37.97628231180852</v>
       </c>
       <c r="Z32" s="1">
         <v>17.7574458957406</v>
       </c>
       <c r="AA32" s="1">
-        <v>36.37334763300169</v>
+        <v>36.37334739458311</v>
       </c>
       <c r="AB32" s="1">
         <v>15.32941728526202</v>
@@ -15381,7 +15381,7 @@
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>1244.676402138546</v>
+        <v>1244.676400231197</v>
       </c>
       <c r="AG32" s="1">
         <v>674.1839437219169</v>
@@ -15393,13 +15393,13 @@
         <v>48.34045682754368</v>
       </c>
       <c r="AJ32" s="1">
-        <v>576.261668276813</v>
+        <v>576.2616308450961</v>
       </c>
       <c r="AK32" s="1">
-        <v>1462.736783317581</v>
+        <v>1462.736745885864</v>
       </c>
       <c r="AL32" s="1">
-        <v>2707.413185456127</v>
+        <v>2707.413146117062</v>
       </c>
     </row>
   </sheetData>
@@ -15986,13 +15986,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>1.757887363433838</v>
+        <v>1.757887125015259</v>
       </c>
       <c r="AK5" s="1">
-        <v>93.16966104507446</v>
+        <v>93.16966080665588</v>
       </c>
       <c r="AL5" s="1">
-        <v>182.527578830719</v>
+        <v>182.5275785923004</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -16102,13 +16102,13 @@
         <v>0.08090967684984207</v>
       </c>
       <c r="AJ6" s="1">
-        <v>1.767877578735352</v>
+        <v>1.767877340316772</v>
       </c>
       <c r="AK6" s="1">
-        <v>65.90266703814268</v>
+        <v>65.9026667997241</v>
       </c>
       <c r="AL6" s="1">
-        <v>82.18485926836729</v>
+        <v>82.18485902994871</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -16450,13 +16450,13 @@
         <v>20.46285820007324</v>
       </c>
       <c r="AJ9" s="1">
-        <v>41.25022125244141</v>
+        <v>41.25021743774414</v>
       </c>
       <c r="AK9" s="1">
-        <v>136.173734664917</v>
+        <v>136.1737308502197</v>
       </c>
       <c r="AL9" s="1">
-        <v>297.1834545135498</v>
+        <v>297.1834506988525</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -16566,13 +16566,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>0.9972562193870544</v>
+        <v>0.9972562789916992</v>
       </c>
       <c r="AK10" s="1">
-        <v>2.80874890089035</v>
+        <v>2.808748960494995</v>
       </c>
       <c r="AL10" s="1">
-        <v>19.49737614393234</v>
+        <v>19.49737620353699</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -19118,13 +19118,13 @@
         <v>33.53420162806287</v>
       </c>
       <c r="AJ32" s="1">
-        <v>177.2085408097182</v>
+        <v>177.2085365777884</v>
       </c>
       <c r="AK32" s="1">
-        <v>808.026031063243</v>
+        <v>808.0260268313132</v>
       </c>
       <c r="AL32" s="1">
-        <v>1857.816484885828</v>
+        <v>1857.816480653898</v>
       </c>
     </row>
   </sheetData>
@@ -19711,13 +19711,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>9.653079986572266</v>
+        <v>9.653080940246582</v>
       </c>
       <c r="AK5" s="1">
-        <v>101.6280174255371</v>
+        <v>101.6280183792114</v>
       </c>
       <c r="AL5" s="1">
-        <v>145.0178184509277</v>
+        <v>145.0178194046021</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -19827,13 +19827,13 @@
         <v>0.08006040006875992</v>
       </c>
       <c r="AJ6" s="1">
-        <v>10.40653800964355</v>
+        <v>10.40653610229492</v>
       </c>
       <c r="AK6" s="1">
-        <v>79.12090543657541</v>
+        <v>79.12090352922678</v>
       </c>
       <c r="AL6" s="1">
-        <v>91.79635099321604</v>
+        <v>91.7963490858674</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -20317,7 +20317,7 @@
         <v>0.7026605010032654</v>
       </c>
       <c r="F11" s="1">
-        <v>0.01359409280121326</v>
+        <v>0.01359409373253584</v>
       </c>
       <c r="G11" s="1">
         <v>0.4814107120037079</v>
@@ -20338,7 +20338,7 @@
         <v>15.33491325378418</v>
       </c>
       <c r="M11" s="1">
-        <v>62.30974578857422</v>
+        <v>62.30974960327148</v>
       </c>
       <c r="N11" s="1">
         <v>10.65878582000732</v>
@@ -20401,19 +20401,19 @@
         <v>3.18329644203186</v>
       </c>
       <c r="AH11" s="1">
-        <v>3.483762502670288</v>
+        <v>3.483762741088867</v>
       </c>
       <c r="AI11" s="1">
         <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>103.5690841674805</v>
+        <v>103.5690994262695</v>
       </c>
       <c r="AK11" s="1">
-        <v>110.2361431121826</v>
+        <v>110.2361586093903</v>
       </c>
       <c r="AL11" s="1">
-        <v>256.5196361541748</v>
+        <v>256.5196516513824</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -20871,13 +20871,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>14.27007579803467</v>
+        <v>14.27007865905762</v>
       </c>
       <c r="AK15" s="1">
-        <v>49.2253589630127</v>
+        <v>49.22536182403564</v>
       </c>
       <c r="AL15" s="1">
-        <v>70.29960823059082</v>
+        <v>70.29961109161377</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -22753,7 +22753,7 @@
         <v>65.09976025706055</v>
       </c>
       <c r="F32" s="1">
-        <v>4.198317487236636</v>
+        <v>4.198317488167959</v>
       </c>
       <c r="G32" s="1">
         <v>8.465198555777533</v>
@@ -22774,7 +22774,7 @@
         <v>198.2894617094862</v>
       </c>
       <c r="M32" s="1">
-        <v>306.3200636693218</v>
+        <v>306.3200674840191</v>
       </c>
       <c r="N32" s="1">
         <v>53.51309093287273</v>
@@ -22837,19 +22837,19 @@
         <v>484.8504813087347</v>
       </c>
       <c r="AH32" s="1">
-        <v>194.937429793179</v>
+        <v>194.9374300315976</v>
       </c>
       <c r="AI32" s="1">
         <v>32.46733165811747</v>
       </c>
       <c r="AJ32" s="1">
-        <v>1003.850710508268</v>
+        <v>1003.850727674406</v>
       </c>
       <c r="AK32" s="1">
-        <v>1716.105953268299</v>
+        <v>1716.105970672856</v>
       </c>
       <c r="AL32" s="1">
-        <v>3231.905262946908</v>
+        <v>3231.905280351464</v>
       </c>
     </row>
   </sheetData>
@@ -23334,22 +23334,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3.798157453536987</v>
+        <v>3.798157691955566</v>
       </c>
       <c r="C5" s="1">
-        <v>0.02808082103729248</v>
+        <v>0.02808082289993763</v>
       </c>
       <c r="D5" s="1">
         <v>3.81193749490194e-05</v>
       </c>
       <c r="E5" s="1">
-        <v>6.212713241577148</v>
+        <v>6.212713718414307</v>
       </c>
       <c r="F5" s="1">
         <v>0.01885851472616196</v>
       </c>
       <c r="G5" s="1">
-        <v>0.009841333143413067</v>
+        <v>0.009841334074735641</v>
       </c>
       <c r="H5" s="1">
         <v>0.01428558304905891</v>
@@ -23361,7 +23361,7 @@
         <v>0.001073710038326681</v>
       </c>
       <c r="K5" s="1">
-        <v>0.0004845154471695423</v>
+        <v>0.0004845154762733728</v>
       </c>
       <c r="L5" s="1">
         <v>2.231849293821142e-06</v>
@@ -23379,13 +23379,13 @@
         <v>0.05214452371001244</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.1173030883073807</v>
+        <v>0.1173030957579613</v>
       </c>
       <c r="R5" s="1">
-        <v>0.05312225967645645</v>
+        <v>0.05312226340174675</v>
       </c>
       <c r="S5" s="1">
-        <v>0.3937777578830719</v>
+        <v>0.3937777876853943</v>
       </c>
       <c r="T5" s="1">
         <v>1.702770709991455</v>
@@ -23406,16 +23406,16 @@
         <v>0.1164158284664154</v>
       </c>
       <c r="Z5" s="1">
-        <v>0.1836965680122375</v>
+        <v>0.1836965829133987</v>
       </c>
       <c r="AA5" s="1">
         <v>0.3112075924873352</v>
       </c>
       <c r="AB5" s="1">
-        <v>0.1861662715673447</v>
+        <v>0.1861662864685059</v>
       </c>
       <c r="AC5" s="1">
-        <v>0.4803435206413269</v>
+        <v>0.4803435504436493</v>
       </c>
       <c r="AD5" s="1">
         <v>0.2613296508789062</v>
@@ -23427,7 +23427,7 @@
         <v>16.04626083374023</v>
       </c>
       <c r="AG5" s="1">
-        <v>32.11388397216797</v>
+        <v>32.11388778686523</v>
       </c>
       <c r="AH5" s="1">
         <v>0</v>
@@ -23436,13 +23436,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>4.843239784240723</v>
+        <v>4.843244552612305</v>
       </c>
       <c r="AK5" s="1">
-        <v>36.95712375640869</v>
+        <v>36.95713233947754</v>
       </c>
       <c r="AL5" s="1">
-        <v>53.00338459014893</v>
+        <v>53.00339317321777</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -23453,55 +23453,55 @@
         <v>0.01537345163524151</v>
       </c>
       <c r="C6" s="1">
-        <v>0.007070809602737427</v>
+        <v>0.007070809137076139</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02986262179911137</v>
+        <v>0.02986261993646622</v>
       </c>
       <c r="F6" s="1">
-        <v>3.713462829589844</v>
+        <v>3.713462591171265</v>
       </c>
       <c r="G6" s="1">
-        <v>0.007457599975168705</v>
+        <v>0.007457599509507418</v>
       </c>
       <c r="H6" s="1">
         <v>0.001895018853247166</v>
       </c>
       <c r="I6" s="1">
-        <v>0.1748294532299042</v>
+        <v>0.174829438328743</v>
       </c>
       <c r="J6" s="1">
         <v>0.06716164946556091</v>
       </c>
       <c r="K6" s="1">
-        <v>0.07469411194324493</v>
+        <v>0.07469410449266434</v>
       </c>
       <c r="L6" s="1">
         <v>0.0002924412256106734</v>
       </c>
       <c r="M6" s="1">
-        <v>0.006332456134259701</v>
+        <v>0.006332455668598413</v>
       </c>
       <c r="N6" s="1">
-        <v>0.02393200993537903</v>
+        <v>0.02393200807273388</v>
       </c>
       <c r="O6" s="1">
-        <v>0.2389043867588043</v>
+        <v>0.2389043718576431</v>
       </c>
       <c r="P6" s="1">
-        <v>0.2695372402667999</v>
+        <v>0.2695372104644775</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.2778978943824768</v>
+        <v>0.2778978645801544</v>
       </c>
       <c r="R6" s="1">
-        <v>0.6354354619979858</v>
+        <v>0.6354354023933411</v>
       </c>
       <c r="S6" s="1">
-        <v>0.3503997325897217</v>
+        <v>0.3503997027873993</v>
       </c>
       <c r="T6" s="1">
         <v>0.02045834809541702</v>
@@ -23516,19 +23516,19 @@
         <v>0.04523512721061707</v>
       </c>
       <c r="X6" s="1">
-        <v>0.005126219242811203</v>
+        <v>0.005126218311488628</v>
       </c>
       <c r="Y6" s="1">
         <v>0.1825909912586212</v>
       </c>
       <c r="Z6" s="1">
-        <v>0.1541820168495178</v>
+        <v>0.1541820019483566</v>
       </c>
       <c r="AA6" s="1">
-        <v>0.1642518192529678</v>
+        <v>0.1642518043518066</v>
       </c>
       <c r="AB6" s="1">
-        <v>0.04757849499583244</v>
+        <v>0.04757849127054214</v>
       </c>
       <c r="AC6" s="1">
         <v>0.3937858939170837</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>7.192104816436768</v>
+        <v>7.192103385925293</v>
       </c>
       <c r="AG6" s="1">
         <v>24.29047775268555</v>
@@ -23549,16 +23549,16 @@
         <v>0.06542888283729553</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.03131312876939774</v>
+        <v>0.03131312504410744</v>
       </c>
       <c r="AJ6" s="1">
-        <v>5.265700340270996</v>
+        <v>5.265698432922363</v>
       </c>
       <c r="AK6" s="1">
-        <v>29.65292010456324</v>
+        <v>29.65291819348931</v>
       </c>
       <c r="AL6" s="1">
-        <v>36.845024921</v>
+        <v>36.84502157941461</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -23804,7 +23804,7 @@
         <v>1.022714734077454</v>
       </c>
       <c r="D9" s="1">
-        <v>0.4224514663219452</v>
+        <v>0.4224514365196228</v>
       </c>
       <c r="E9" s="1">
         <v>2.413609981536865</v>
@@ -23897,16 +23897,16 @@
         <v>0</v>
       </c>
       <c r="AI9" s="1">
-        <v>7.783740043640137</v>
+        <v>7.783739566802979</v>
       </c>
       <c r="AJ9" s="1">
-        <v>120.2923278808594</v>
+        <v>120.2923049926758</v>
       </c>
       <c r="AK9" s="1">
-        <v>155.8971090316772</v>
+        <v>155.8970856666565</v>
       </c>
       <c r="AL9" s="1">
-        <v>246.1694402694702</v>
+        <v>246.1694169044495</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>2.851140260696411</v>
+        <v>2.851140022277832</v>
       </c>
       <c r="AK10" s="1">
-        <v>3.513588905334473</v>
+        <v>3.513588666915894</v>
       </c>
       <c r="AL10" s="1">
-        <v>10.24192190170288</v>
+        <v>10.2419216632843</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -24167,7 +24167,7 @@
         <v>0.01036519557237625</v>
       </c>
       <c r="I12" s="1">
-        <v>0.08406339585781097</v>
+        <v>0.08406340330839157</v>
       </c>
       <c r="J12" s="1">
         <v>0.02666839398443699</v>
@@ -24206,7 +24206,7 @@
         <v>0.8374292850494385</v>
       </c>
       <c r="V12" s="1">
-        <v>0.7190616726875305</v>
+        <v>0.7190617322921753</v>
       </c>
       <c r="W12" s="1">
         <v>0.01804424822330475</v>
@@ -24248,13 +24248,13 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>83.2066650390625</v>
+        <v>83.20667266845703</v>
       </c>
       <c r="AK12" s="1">
-        <v>114.7526597976685</v>
+        <v>114.752667427063</v>
       </c>
       <c r="AL12" s="1">
-        <v>131.7347345352173</v>
+        <v>131.7347421646118</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -24712,13 +24712,13 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>2.285383462905884</v>
+        <v>2.285383701324463</v>
       </c>
       <c r="AK16" s="1">
-        <v>4.764370623975992</v>
+        <v>4.764370862394571</v>
       </c>
       <c r="AL16" s="1">
-        <v>28.79432362690568</v>
+        <v>28.79432386532426</v>
       </c>
     </row>
     <row r="17" spans="1:38">
@@ -26466,55 +26466,55 @@
         <v>37</v>
       </c>
       <c r="B32" s="1">
-        <v>23.33534959042618</v>
+        <v>23.33534982884476</v>
       </c>
       <c r="C32" s="1">
-        <v>2.570573395169731</v>
+        <v>2.570573396566715</v>
       </c>
       <c r="D32" s="1">
-        <v>2.33687384795212</v>
+        <v>2.336873818149797</v>
       </c>
       <c r="E32" s="1">
-        <v>21.16564040873891</v>
+        <v>21.16564088371342</v>
       </c>
       <c r="F32" s="1">
-        <v>5.559594694886982</v>
+        <v>5.559594456468403</v>
       </c>
       <c r="G32" s="1">
-        <v>6.982382082972435</v>
+        <v>6.982382083438097</v>
       </c>
       <c r="H32" s="1">
         <v>0.848945303782898</v>
       </c>
       <c r="I32" s="1">
-        <v>114.2372439858555</v>
+        <v>114.2372439784049</v>
       </c>
       <c r="J32" s="1">
         <v>3.710206794090027</v>
       </c>
       <c r="K32" s="1">
-        <v>121.1177833858383</v>
+        <v>121.1177833784168</v>
       </c>
       <c r="L32" s="1">
         <v>0.3125401889260786</v>
       </c>
       <c r="M32" s="1">
-        <v>7.44060279207315</v>
+        <v>7.440602791607489</v>
       </c>
       <c r="N32" s="1">
-        <v>11.95778027469987</v>
+        <v>11.95778027283723</v>
       </c>
       <c r="O32" s="1">
-        <v>8.921340279044671</v>
+        <v>8.92134026414351</v>
       </c>
       <c r="P32" s="1">
-        <v>17.13855241869112</v>
+        <v>17.1385523888888</v>
       </c>
       <c r="Q32" s="1">
-        <v>28.37281239969661</v>
+        <v>28.37281237734487</v>
       </c>
       <c r="R32" s="1">
-        <v>24.86689842137639</v>
+        <v>24.86689836549704</v>
       </c>
       <c r="S32" s="1">
         <v>28.61542877585089</v>
@@ -26526,13 +26526,13 @@
         <v>7.492867289250171</v>
       </c>
       <c r="V32" s="1">
-        <v>3.676117486261319</v>
+        <v>3.676117545865964</v>
       </c>
       <c r="W32" s="1">
         <v>4.85055791600098</v>
       </c>
       <c r="X32" s="1">
-        <v>4.176618645872622</v>
+        <v>4.1766186449413</v>
       </c>
       <c r="Y32" s="1">
         <v>5.381219575697855</v>
@@ -26541,13 +26541,13 @@
         <v>3.68938923600399</v>
       </c>
       <c r="AA32" s="1">
-        <v>9.97721232580534</v>
+        <v>9.977212310904179</v>
       </c>
       <c r="AB32" s="1">
-        <v>3.260636712897394</v>
+        <v>3.260636724073265</v>
       </c>
       <c r="AC32" s="1">
-        <v>18.14656629389083</v>
+        <v>18.14656632369315</v>
       </c>
       <c r="AD32" s="1">
         <v>4.945401999707428</v>
@@ -26556,25 +26556,25 @@
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>498.6420978786773</v>
+        <v>498.6420964481658</v>
       </c>
       <c r="AG32" s="1">
-        <v>170.0036342505009</v>
+        <v>170.0036380651982</v>
       </c>
       <c r="AH32" s="1">
         <v>64.91187542304397</v>
       </c>
       <c r="AI32" s="1">
-        <v>12.44171581743285</v>
+        <v>12.4417153368704</v>
       </c>
       <c r="AJ32" s="1">
-        <v>506.0878324368732</v>
+        <v>506.0878200391071</v>
       </c>
       <c r="AK32" s="1">
-        <v>753.4450579278509</v>
+        <v>753.4450488642196</v>
       </c>
       <c r="AL32" s="1">
-        <v>1252.087155806528</v>
+        <v>1252.087145312385</v>
       </c>
     </row>
   </sheetData>
@@ -26813,13 +26813,13 @@
         <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>3.437853813171387</v>
+        <v>3.437854290008545</v>
       </c>
       <c r="AK2" s="1">
-        <v>40.68001544475555</v>
+        <v>40.68001592159271</v>
       </c>
       <c r="AL2" s="1">
-        <v>86.31593310832977</v>
+        <v>86.31593358516693</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>0.2639086544513702</v>
+        <v>0.2639086246490479</v>
       </c>
       <c r="AK3" s="1">
-        <v>7.57778599858284</v>
+        <v>7.577785968780518</v>
       </c>
       <c r="AL3" s="1">
-        <v>36.80846646428108</v>
+        <v>36.80846643447876</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -27161,13 +27161,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>4.514986038208008</v>
+        <v>4.51499080657959</v>
       </c>
       <c r="AK5" s="1">
-        <v>187.3968830108643</v>
+        <v>187.3968877792358</v>
       </c>
       <c r="AL5" s="1">
-        <v>252.5045337677002</v>
+        <v>252.5045385360718</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -27277,13 +27277,13 @@
         <v>0.1702183783054352</v>
       </c>
       <c r="AJ6" s="1">
-        <v>4.68547248840332</v>
+        <v>4.685471534729004</v>
       </c>
       <c r="AK6" s="1">
-        <v>137.4997264146805</v>
+        <v>137.4997254610062</v>
       </c>
       <c r="AL6" s="1">
-        <v>164.8895465135574</v>
+        <v>164.8895455598831</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -27741,13 +27741,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>2.641164064407349</v>
+        <v>2.641164779663086</v>
       </c>
       <c r="AK10" s="1">
-        <v>6.395563125610352</v>
+        <v>6.395563840866089</v>
       </c>
       <c r="AL10" s="1">
-        <v>45.79107093811035</v>
+        <v>45.79107165336609</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -27973,13 +27973,13 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>73.65731811523438</v>
+        <v>73.65732574462891</v>
       </c>
       <c r="AK12" s="1">
-        <v>227.2871170043945</v>
+        <v>227.2871246337891</v>
       </c>
       <c r="AL12" s="1">
-        <v>542.1990127563477</v>
+        <v>542.1990203857422</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -28205,13 +28205,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>27.31481742858887</v>
+        <v>27.3148193359375</v>
       </c>
       <c r="AK14" s="1">
-        <v>216.0333156585693</v>
+        <v>216.033317565918</v>
       </c>
       <c r="AL14" s="1">
-        <v>245.591459274292</v>
+        <v>245.5914611816406</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -28437,13 +28437,13 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>2.2410888671875</v>
+        <v>2.241089105606079</v>
       </c>
       <c r="AK16" s="1">
-        <v>17.08864051103592</v>
+        <v>17.0886407494545</v>
       </c>
       <c r="AL16" s="1">
-        <v>114.264437019825</v>
+        <v>114.2644372582436</v>
       </c>
     </row>
     <row r="17" spans="1:38">
@@ -30293,13 +30293,13 @@
         <v>70.86609516479075</v>
       </c>
       <c r="AJ32" s="1">
-        <v>470.0245287560938</v>
+        <v>470.0245435082434</v>
       </c>
       <c r="AK32" s="1">
-        <v>1871.112434071631</v>
+        <v>1871.11244882378</v>
       </c>
       <c r="AL32" s="1">
-        <v>4188.241277760269</v>
+        <v>4188.241292512419</v>
       </c>
     </row>
   </sheetData>
@@ -31002,13 +31002,13 @@
         <v>0.03132535144686699</v>
       </c>
       <c r="AJ6" s="1">
-        <v>0.4288261830806732</v>
+        <v>0.4288260638713837</v>
       </c>
       <c r="AK6" s="1">
-        <v>25.37369368597865</v>
+        <v>25.37369356676936</v>
       </c>
       <c r="AL6" s="1">
-        <v>28.22765062376857</v>
+        <v>28.22765050455928</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -31263,7 +31263,7 @@
         <v>0.01995722763240337</v>
       </c>
       <c r="G9" s="1">
-        <v>1.173056960105896</v>
+        <v>1.173056840896606</v>
       </c>
       <c r="H9" s="1">
         <v>0.2073480486869812</v>
@@ -31278,10 +31278,10 @@
         <v>0.1459416896104813</v>
       </c>
       <c r="L9" s="1">
-        <v>0.3061261177062988</v>
+        <v>0.3061260879039764</v>
       </c>
       <c r="M9" s="1">
-        <v>0.03924582526087761</v>
+        <v>0.03924582153558731</v>
       </c>
       <c r="N9" s="1">
         <v>1.15751576423645</v>
@@ -31305,7 +31305,7 @@
         <v>0.01872947625815868</v>
       </c>
       <c r="U9" s="1">
-        <v>0.02363093197345734</v>
+        <v>0.02363093011081219</v>
       </c>
       <c r="V9" s="1">
         <v>0.149702712893486</v>
@@ -31347,16 +31347,16 @@
         <v>0</v>
       </c>
       <c r="AI9" s="1">
-        <v>7.955127716064453</v>
+        <v>7.955127239227295</v>
       </c>
       <c r="AJ9" s="1">
-        <v>9.88347339630127</v>
+        <v>9.883472442626953</v>
       </c>
       <c r="AK9" s="1">
-        <v>46.95297718048096</v>
+        <v>46.95297574996948</v>
       </c>
       <c r="AL9" s="1">
-        <v>94.34733295440674</v>
+        <v>94.34733152389526</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -31466,13 +31466,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>0.2411433458328247</v>
+        <v>0.2411432713270187</v>
       </c>
       <c r="AK10" s="1">
-        <v>0.9570111632347107</v>
+        <v>0.9570110887289047</v>
       </c>
       <c r="AL10" s="1">
-        <v>7.331304967403412</v>
+        <v>7.331304892897606</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -31698,13 +31698,13 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>6.709137439727783</v>
+        <v>6.709137916564941</v>
       </c>
       <c r="AK12" s="1">
-        <v>33.12668085098267</v>
+        <v>33.12668132781982</v>
       </c>
       <c r="AL12" s="1">
-        <v>52.24878549575806</v>
+        <v>52.24878597259521</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -31814,13 +31814,13 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>6.050904273986816</v>
+        <v>6.050903797149658</v>
       </c>
       <c r="AK13" s="1">
-        <v>18.54826033115387</v>
+        <v>18.54825985431671</v>
       </c>
       <c r="AL13" s="1">
-        <v>27.79771387577057</v>
+        <v>27.79771339893341</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -32046,13 +32046,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>0.5690868496894836</v>
+        <v>0.5690867900848389</v>
       </c>
       <c r="AK15" s="1">
-        <v>12.08461743593216</v>
+        <v>12.08461737632751</v>
       </c>
       <c r="AL15" s="1">
-        <v>17.6182616353035</v>
+        <v>17.61826157569885</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -33931,7 +33931,7 @@
         <v>0.1267613814875261</v>
       </c>
       <c r="G32" s="1">
-        <v>6.89763182783463</v>
+        <v>6.89763170862534</v>
       </c>
       <c r="H32" s="1">
         <v>0.5746212683567933</v>
@@ -33946,10 +33946,10 @@
         <v>4.128894494007454</v>
       </c>
       <c r="L32" s="1">
-        <v>10.4825727932066</v>
+        <v>10.48257276340428</v>
       </c>
       <c r="M32" s="1">
-        <v>1.561515486191183</v>
+        <v>1.561515482465893</v>
       </c>
       <c r="N32" s="1">
         <v>18.65653496264986</v>
@@ -33973,7 +33973,7 @@
         <v>5.089210791566984</v>
       </c>
       <c r="U32" s="1">
-        <v>3.908523401682032</v>
+        <v>3.908523399819387</v>
       </c>
       <c r="V32" s="1">
         <v>3.143643892795808</v>
@@ -34015,16 +34015,16 @@
         <v>40.44007936306298</v>
       </c>
       <c r="AI32" s="1">
-        <v>13.10971874510869</v>
+        <v>13.10971826827154</v>
       </c>
       <c r="AJ32" s="1">
-        <v>42.66489395674944</v>
+        <v>42.66489274975538</v>
       </c>
       <c r="AK32" s="1">
-        <v>277.1300312923886</v>
+        <v>277.1300296085574</v>
       </c>
       <c r="AL32" s="1">
-        <v>555.7128787880101</v>
+        <v>555.7128771041789</v>
       </c>
     </row>
   </sheetData>
@@ -34263,13 +34263,13 @@
         <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>7.476330757141113</v>
+        <v>7.47633171081543</v>
       </c>
       <c r="AK2" s="1">
-        <v>25.39817288517952</v>
+        <v>25.39817383885384</v>
       </c>
       <c r="AL2" s="1">
-        <v>34.1776023209095</v>
+        <v>34.17760327458382</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -34611,13 +34611,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>9.727916717529297</v>
+        <v>9.72791862487793</v>
       </c>
       <c r="AK5" s="1">
-        <v>96.62874984741211</v>
+        <v>96.62875175476074</v>
       </c>
       <c r="AL5" s="1">
-        <v>122.2349281311035</v>
+        <v>122.2349300384521</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -34625,7 +34625,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.009170216508209705</v>
+        <v>0.009170215576887131</v>
       </c>
       <c r="C6" s="1">
         <v>0.02154230326414108</v>
@@ -34634,31 +34634,31 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0128349456936121</v>
+        <v>0.01283494476228952</v>
       </c>
       <c r="F6" s="1">
-        <v>1.784665465354919</v>
+        <v>1.78466534614563</v>
       </c>
       <c r="G6" s="1">
         <v>0.01034331135451794</v>
       </c>
       <c r="H6" s="1">
-        <v>0.235937312245369</v>
+        <v>0.2359372824430466</v>
       </c>
       <c r="I6" s="1">
-        <v>0.02637824602425098</v>
+        <v>0.02637824416160583</v>
       </c>
       <c r="J6" s="1">
         <v>0.1781117618083954</v>
       </c>
       <c r="K6" s="1">
-        <v>0.4151643216609955</v>
+        <v>0.4151642918586731</v>
       </c>
       <c r="L6" s="1">
         <v>0.0006419020937755704</v>
       </c>
       <c r="M6" s="1">
-        <v>0.004603899549692869</v>
+        <v>0.004603899084031582</v>
       </c>
       <c r="N6" s="1">
         <v>0.08403158187866211</v>
@@ -34667,34 +34667,34 @@
         <v>0.5040254592895508</v>
       </c>
       <c r="P6" s="1">
-        <v>0.8899335861206055</v>
+        <v>0.8899335265159607</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.7090708017349243</v>
+        <v>0.7090706825256348</v>
       </c>
       <c r="R6" s="1">
-        <v>1.069918870925903</v>
+        <v>1.069918632507324</v>
       </c>
       <c r="S6" s="1">
         <v>0.3915085792541504</v>
       </c>
       <c r="T6" s="1">
-        <v>0.1444038450717926</v>
+        <v>0.1444038301706314</v>
       </c>
       <c r="U6" s="1">
-        <v>0.09566153585910797</v>
+        <v>0.09566152095794678</v>
       </c>
       <c r="V6" s="1">
         <v>0.1321532726287842</v>
       </c>
       <c r="W6" s="1">
-        <v>0.1196687817573547</v>
+        <v>0.1196687668561935</v>
       </c>
       <c r="X6" s="1">
-        <v>0.01382796093821526</v>
+        <v>0.01382796000689268</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.6164863705635071</v>
+        <v>0.6164863109588623</v>
       </c>
       <c r="Z6" s="1">
         <v>0.5341894626617432</v>
@@ -34703,10 +34703,10 @@
         <v>0.5617172122001648</v>
       </c>
       <c r="AB6" s="1">
-        <v>0.1273937970399857</v>
+        <v>0.1273937821388245</v>
       </c>
       <c r="AC6" s="1">
-        <v>1.019009232521057</v>
+        <v>1.019009113311768</v>
       </c>
       <c r="AD6" s="1">
         <v>0.4128171503543854</v>
@@ -34715,7 +34715,7 @@
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>10.12521076202393</v>
+        <v>10.12520980834961</v>
       </c>
       <c r="AG6" s="1">
         <v>65.52481079101562</v>
@@ -34727,13 +34727,13 @@
         <v>0.08093401789665222</v>
       </c>
       <c r="AJ6" s="1">
-        <v>10.59231185913086</v>
+        <v>10.59230136871338</v>
       </c>
       <c r="AK6" s="1">
-        <v>76.3600946366787</v>
+        <v>76.36008414626122</v>
       </c>
       <c r="AL6" s="1">
-        <v>86.48530539870262</v>
+        <v>86.48529395461082</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -34741,7 +34741,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.001686910400167108</v>
+        <v>0.001686910283751786</v>
       </c>
       <c r="C7" s="1">
         <v>0.001243952778168023</v>
@@ -34843,13 +34843,13 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>10.31156635284424</v>
+        <v>10.31156444549561</v>
       </c>
       <c r="AK7" s="1">
-        <v>10.44357074797153</v>
+        <v>10.4435688406229</v>
       </c>
       <c r="AL7" s="1">
-        <v>21.04407848417759</v>
+        <v>21.04407657682896</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -35423,13 +35423,13 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>167.2817077636719</v>
+        <v>167.2817230224609</v>
       </c>
       <c r="AK12" s="1">
-        <v>252.979419708252</v>
+        <v>252.979434967041</v>
       </c>
       <c r="AL12" s="1">
-        <v>298.7717781066895</v>
+        <v>298.7717933654785</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -35771,13 +35771,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>14.56261539459229</v>
+        <v>14.5626163482666</v>
       </c>
       <c r="AK15" s="1">
-        <v>47.206218957901</v>
+        <v>47.20621991157532</v>
       </c>
       <c r="AL15" s="1">
-        <v>66.82944512367249</v>
+        <v>66.8294460773468</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -35887,13 +35887,13 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>4.594379425048828</v>
+        <v>4.594379901885986</v>
       </c>
       <c r="AK16" s="1">
-        <v>11.34249494969845</v>
+        <v>11.34249542653561</v>
       </c>
       <c r="AL16" s="1">
-        <v>123.0676383823156</v>
+        <v>123.0676388591528</v>
       </c>
     </row>
     <row r="17" spans="1:38">
@@ -37641,7 +37641,7 @@
         <v>37</v>
       </c>
       <c r="B32" s="1">
-        <v>14.19557894296599</v>
+        <v>14.19557894191826</v>
       </c>
       <c r="C32" s="1">
         <v>7.978265436497395</v>
@@ -37650,31 +37650,31 @@
         <v>74.95757972200954</v>
       </c>
       <c r="E32" s="1">
-        <v>9.287519485700614</v>
+        <v>9.287519484769291</v>
       </c>
       <c r="F32" s="1">
-        <v>2.688530407872577</v>
+        <v>2.688530288663287</v>
       </c>
       <c r="G32" s="1">
         <v>9.862272303937061</v>
       </c>
       <c r="H32" s="1">
-        <v>107.4997997535538</v>
+        <v>107.4997997237515</v>
       </c>
       <c r="I32" s="1">
-        <v>17.61155670516268</v>
+        <v>17.61155670330004</v>
       </c>
       <c r="J32" s="1">
         <v>10.02028893462557</v>
       </c>
       <c r="K32" s="1">
-        <v>686.6553191770799</v>
+        <v>686.6553191472776</v>
       </c>
       <c r="L32" s="1">
         <v>0.6983846246411645</v>
       </c>
       <c r="M32" s="1">
-        <v>5.511239469002703</v>
+        <v>5.511239468537042</v>
       </c>
       <c r="N32" s="1">
         <v>42.67445094542018</v>
@@ -37683,34 +37683,34 @@
         <v>19.11949647988513</v>
       </c>
       <c r="P32" s="1">
-        <v>57.78797459112366</v>
+        <v>57.78797453151901</v>
       </c>
       <c r="Q32" s="1">
-        <v>73.56716622188708</v>
+        <v>73.56716610267779</v>
       </c>
       <c r="R32" s="1">
-        <v>42.75372300669915</v>
+        <v>42.75372276828057</v>
       </c>
       <c r="S32" s="1">
         <v>32.5764134455103</v>
       </c>
       <c r="T32" s="1">
-        <v>25.42868766037191</v>
+        <v>25.42868764547075</v>
       </c>
       <c r="U32" s="1">
-        <v>11.3886648974476</v>
+        <v>11.38866488254644</v>
       </c>
       <c r="V32" s="1">
         <v>6.536155006544504</v>
       </c>
       <c r="W32" s="1">
-        <v>13.05780586279434</v>
+        <v>13.05780584789318</v>
       </c>
       <c r="X32" s="1">
-        <v>11.47941803993308</v>
+        <v>11.47941803900176</v>
       </c>
       <c r="Y32" s="1">
-        <v>18.50477721883226</v>
+        <v>18.50477715922761</v>
       </c>
       <c r="Z32" s="1">
         <v>13.00252748331422</v>
@@ -37719,10 +37719,10 @@
         <v>34.78841087377441</v>
       </c>
       <c r="AB32" s="1">
-        <v>8.890246042294166</v>
+        <v>8.890246027393005</v>
       </c>
       <c r="AC32" s="1">
-        <v>47.71306985162482</v>
+        <v>47.71306973241553</v>
       </c>
       <c r="AD32" s="1">
         <v>14.38921770261368</v>
@@ -37731,7 +37731,7 @@
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>1420.6245667896</v>
+        <v>1420.624565835926</v>
       </c>
       <c r="AG32" s="1">
         <v>464.134068753905</v>
@@ -37743,13 +37743,13 @@
         <v>32.78970639174804</v>
       </c>
       <c r="AJ32" s="1">
-        <v>1023.740670188927</v>
+        <v>1023.740677341484</v>
       </c>
       <c r="AK32" s="1">
-        <v>1691.122217626777</v>
+        <v>1691.122224779334</v>
       </c>
       <c r="AL32" s="1">
-        <v>3111.746784416377</v>
+        <v>3111.74679061526</v>
       </c>
     </row>
   </sheetData>
@@ -37988,13 +37988,13 @@
         <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>0.1859791576862335</v>
+        <v>0.1859791427850723</v>
       </c>
       <c r="AK2" s="1">
-        <v>3.550391007214785</v>
+        <v>3.550390992313623</v>
       </c>
       <c r="AL2" s="1">
-        <v>7.902674484997988</v>
+        <v>7.902674470096827</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -38104,13 +38104,13 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>0.01431970112025738</v>
+        <v>0.01431970298290253</v>
       </c>
       <c r="AK3" s="1">
-        <v>0.6688195746392012</v>
+        <v>0.6688195765018463</v>
       </c>
       <c r="AL3" s="1">
-        <v>2.31795266084373</v>
+        <v>2.317952662706375</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -38336,13 +38336,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>0.2445044815540314</v>
+        <v>0.2445044219493866</v>
       </c>
       <c r="AK5" s="1">
-        <v>16.83826974034309</v>
+        <v>16.83826968073845</v>
       </c>
       <c r="AL5" s="1">
-        <v>23.92505457997322</v>
+        <v>23.92505452036858</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -38452,13 +38452,13 @@
         <v>0.0118821058422327</v>
       </c>
       <c r="AJ6" s="1">
-        <v>0.2552443742752075</v>
+        <v>0.2552443146705627</v>
       </c>
       <c r="AK6" s="1">
-        <v>12.14959526620805</v>
+        <v>12.14959520660341</v>
       </c>
       <c r="AL6" s="1">
-        <v>14.31914401613176</v>
+        <v>14.31914395652711</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -38523,7 +38523,7 @@
         <v>0.0002362922532483935</v>
       </c>
       <c r="U7" s="1">
-        <v>0.001724356319755316</v>
+        <v>0.001724356436170638</v>
       </c>
       <c r="V7" s="1">
         <v>0.003714220132678747</v>
@@ -38541,7 +38541,7 @@
         <v>0.001523945014923811</v>
       </c>
       <c r="AA7" s="1">
-        <v>0.00106091913767159</v>
+        <v>0.001060919254086912</v>
       </c>
       <c r="AB7" s="1">
         <v>0.004018132109194994</v>
@@ -38568,13 +38568,13 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>0.25555419921875</v>
+        <v>0.2555542588233948</v>
       </c>
       <c r="AK7" s="1">
-        <v>0.2801918815821409</v>
+        <v>0.2801919411867857</v>
       </c>
       <c r="AL7" s="1">
-        <v>1.722661716863513</v>
+        <v>1.722661776468158</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -38916,13 +38916,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>0.1428551524877548</v>
+        <v>0.142855167388916</v>
       </c>
       <c r="AK10" s="1">
-        <v>0.482377216219902</v>
+        <v>0.4823772311210632</v>
       </c>
       <c r="AL10" s="1">
-        <v>2.824823305010796</v>
+        <v>2.824823319911957</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -39264,13 +39264,13 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>3.583215951919556</v>
+        <v>3.583216428756714</v>
       </c>
       <c r="AK13" s="1">
-        <v>10.23858118057251</v>
+        <v>10.23858165740967</v>
       </c>
       <c r="AL13" s="1">
-        <v>14.56044006347656</v>
+        <v>14.56044054031372</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -41423,7 +41423,7 @@
         <v>3.299656970110846</v>
       </c>
       <c r="U32" s="1">
-        <v>6.46375899258328</v>
+        <v>6.463758992699695</v>
       </c>
       <c r="V32" s="1">
         <v>5.745936465713385</v>
@@ -41441,7 +41441,7 @@
         <v>1.234355227733658</v>
       </c>
       <c r="AA32" s="1">
-        <v>4.088134007196004</v>
+        <v>4.088134007312419</v>
       </c>
       <c r="AB32" s="1">
         <v>2.310747027342131</v>
@@ -41468,13 +41468,13 @@
         <v>4.993424995802343</v>
       </c>
       <c r="AJ32" s="1">
-        <v>25.31234481265017</v>
+        <v>25.31234523174533</v>
       </c>
       <c r="AK32" s="1">
-        <v>149.2859525579264</v>
+        <v>149.2859529770216</v>
       </c>
       <c r="AL32" s="1">
-        <v>317.3708066288094</v>
+        <v>317.3708070479046</v>
       </c>
     </row>
   </sheetData>
@@ -42061,13 +42061,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>11.01456451416016</v>
+        <v>11.01456642150879</v>
       </c>
       <c r="AK5" s="1">
-        <v>245.8139724731445</v>
+        <v>245.8139743804932</v>
       </c>
       <c r="AL5" s="1">
-        <v>344.9617156982422</v>
+        <v>344.9617176055908</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -42177,13 +42177,13 @@
         <v>0.2002090960741043</v>
       </c>
       <c r="AJ6" s="1">
-        <v>11.5803108215332</v>
+        <v>11.58030891418457</v>
       </c>
       <c r="AK6" s="1">
-        <v>182.8119257539511</v>
+        <v>182.8119238466024</v>
       </c>
       <c r="AL6" s="1">
-        <v>212.8730944246054</v>
+        <v>212.8730925172567</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -42525,13 +42525,13 @@
         <v>51.47676467895508</v>
       </c>
       <c r="AJ9" s="1">
-        <v>270.966552734375</v>
+        <v>270.9665222167969</v>
       </c>
       <c r="AK9" s="1">
-        <v>524.1816291809082</v>
+        <v>524.1815986633301</v>
       </c>
       <c r="AL9" s="1">
-        <v>1084.429492950439</v>
+        <v>1084.429462432861</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -42566,7 +42566,7 @@
         <v>12.69929504394531</v>
       </c>
       <c r="K10" s="1">
-        <v>1.740395665168762</v>
+        <v>1.740395784378052</v>
       </c>
       <c r="L10" s="1">
         <v>0.2287891507148743</v>
@@ -42584,16 +42584,16 @@
         <v>0.1867766976356506</v>
       </c>
       <c r="Q10" s="1">
-        <v>26.6569881439209</v>
+        <v>26.65699005126953</v>
       </c>
       <c r="R10" s="1">
-        <v>1.20989727973938</v>
+        <v>1.209897398948669</v>
       </c>
       <c r="S10" s="1">
         <v>0.001063639530912042</v>
       </c>
       <c r="T10" s="1">
-        <v>0.001298538991250098</v>
+        <v>0.00129853910766542</v>
       </c>
       <c r="U10" s="1">
         <v>0.02540192194283009</v>
@@ -42602,7 +42602,7 @@
         <v>0.04629908129572868</v>
       </c>
       <c r="W10" s="1">
-        <v>0.0008096627425402403</v>
+        <v>0.0008096628007479012</v>
       </c>
       <c r="X10" s="1">
         <v>0</v>
@@ -42617,7 +42617,7 @@
         <v>0.002599666127935052</v>
       </c>
       <c r="AB10" s="1">
-        <v>0.01208490785211325</v>
+        <v>0.01208490878343582</v>
       </c>
       <c r="AC10" s="1">
         <v>0.3905250430107117</v>
@@ -42629,7 +42629,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>48.31706237792969</v>
+        <v>48.31707000732422</v>
       </c>
       <c r="AG10" s="1">
         <v>4.820718765258789</v>
@@ -42641,13 +42641,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>6.432831764221191</v>
+        <v>6.432833194732666</v>
       </c>
       <c r="AK10" s="1">
-        <v>11.25355052947998</v>
+        <v>11.25355195999146</v>
       </c>
       <c r="AL10" s="1">
-        <v>59.57061290740967</v>
+        <v>59.57062196731567</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -42896,7 +42896,7 @@
         <v>0.6449893712997437</v>
       </c>
       <c r="E13" s="1">
-        <v>0.2575646638870239</v>
+        <v>0.2575646340847015</v>
       </c>
       <c r="F13" s="1">
         <v>0.00594400055706501</v>
@@ -42914,7 +42914,7 @@
         <v>1.086336374282837</v>
       </c>
       <c r="K13" s="1">
-        <v>1.883455276489258</v>
+        <v>1.883455157279968</v>
       </c>
       <c r="L13" s="1">
         <v>1.310133576393127</v>
@@ -42989,13 +42989,13 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>162.1555328369141</v>
+        <v>162.155517578125</v>
       </c>
       <c r="AK13" s="1">
-        <v>249.1392440795898</v>
+        <v>249.1392288208008</v>
       </c>
       <c r="AL13" s="1">
-        <v>415.3617782592773</v>
+        <v>415.3617630004883</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -45100,7 +45100,7 @@
         <v>22.38248300452688</v>
       </c>
       <c r="E32" s="1">
-        <v>116.0373816838546</v>
+        <v>116.0373816540523</v>
       </c>
       <c r="F32" s="1">
         <v>8.503670438516565</v>
@@ -45136,16 +45136,16 @@
         <v>92.03127191189014</v>
       </c>
       <c r="Q32" s="1">
-        <v>206.6653381434962</v>
+        <v>206.6653400508449</v>
       </c>
       <c r="R32" s="1">
-        <v>134.5155694353161</v>
+        <v>134.5155695545254</v>
       </c>
       <c r="S32" s="1">
         <v>122.3457435133751</v>
       </c>
       <c r="T32" s="1">
-        <v>43.47251878137831</v>
+        <v>43.47251878149473</v>
       </c>
       <c r="U32" s="1">
         <v>48.37021613898105</v>
@@ -45154,7 +45154,7 @@
         <v>36.85407091186789</v>
       </c>
       <c r="W32" s="1">
-        <v>34.02853559640062</v>
+        <v>34.02853559645882</v>
       </c>
       <c r="X32" s="1">
         <v>31.33222818355716</v>
@@ -45169,7 +45169,7 @@
         <v>50.79634543192515</v>
       </c>
       <c r="AB32" s="1">
-        <v>22.75134711054488</v>
+        <v>22.75134711147621</v>
       </c>
       <c r="AC32" s="1">
         <v>122.9207449737514</v>
@@ -45181,7 +45181,7 @@
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>3066.279550721636</v>
+        <v>3066.279558351031</v>
       </c>
       <c r="AG32" s="1">
         <v>1232.930320380547</v>
@@ -45193,13 +45193,13 @@
         <v>83.35649739950895</v>
       </c>
       <c r="AJ32" s="1">
-        <v>1153.309226118417</v>
+        <v>1153.309181772562</v>
       </c>
       <c r="AK32" s="1">
-        <v>2819.500862910161</v>
+        <v>2819.500818564306</v>
       </c>
       <c r="AL32" s="1">
-        <v>5885.780413631797</v>
+        <v>5885.780376915336</v>
       </c>
     </row>
   </sheetData>
@@ -45988,7 +45988,7 @@
         <v>0.04440703988075256</v>
       </c>
       <c r="Z7" s="1">
-        <v>0.02081690356135368</v>
+        <v>0.02081690169870853</v>
       </c>
       <c r="AA7" s="1">
         <v>0.008722599595785141</v>
@@ -46018,13 +46018,13 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>11.9706335067749</v>
+        <v>11.97063255310059</v>
       </c>
       <c r="AK7" s="1">
-        <v>12.13769371807575</v>
+        <v>12.13769276440144</v>
       </c>
       <c r="AL7" s="1">
-        <v>27.56223614513874</v>
+        <v>27.56223519146442</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -46154,7 +46154,7 @@
         <v>2.46955394744873</v>
       </c>
       <c r="D9" s="1">
-        <v>1.959617972373962</v>
+        <v>1.959617853164673</v>
       </c>
       <c r="E9" s="1">
         <v>10.08804798126221</v>
@@ -46172,7 +46172,7 @@
         <v>84.46424102783203</v>
       </c>
       <c r="J9" s="1">
-        <v>2.613966703414917</v>
+        <v>2.613966464996338</v>
       </c>
       <c r="K9" s="1">
         <v>15.54572200775146</v>
@@ -46214,7 +46214,7 @@
         <v>2.286117076873779</v>
       </c>
       <c r="X9" s="1">
-        <v>3.390897274017334</v>
+        <v>3.390897035598755</v>
       </c>
       <c r="Y9" s="1">
         <v>0.3198261559009552</v>
@@ -46250,13 +46250,13 @@
         <v>25.0650634765625</v>
       </c>
       <c r="AJ9" s="1">
-        <v>281.9909057617188</v>
+        <v>281.9908752441406</v>
       </c>
       <c r="AK9" s="1">
-        <v>403.7920150756836</v>
+        <v>403.7919845581055</v>
       </c>
       <c r="AL9" s="1">
-        <v>702.6237106323242</v>
+        <v>702.6236801147461</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -46366,13 +46366,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>6.668231964111328</v>
+        <v>6.668232440948486</v>
       </c>
       <c r="AK10" s="1">
-        <v>8.968041658401489</v>
+        <v>8.968042135238647</v>
       </c>
       <c r="AL10" s="1">
-        <v>32.17739796638489</v>
+        <v>32.17739844322205</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -46830,13 +46830,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>69.38249206542969</v>
+        <v>69.38249969482422</v>
       </c>
       <c r="AK14" s="1">
-        <v>182.4271354675293</v>
+        <v>182.4271430969238</v>
       </c>
       <c r="AL14" s="1">
-        <v>221.9624328613281</v>
+        <v>221.9624404907227</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -46946,13 +46946,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>16.83264541625977</v>
+        <v>16.83264350891113</v>
       </c>
       <c r="AK15" s="1">
-        <v>58.12985420227051</v>
+        <v>58.12985229492188</v>
       </c>
       <c r="AL15" s="1">
-        <v>84.34974670410156</v>
+        <v>84.34974479675293</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -48822,7 +48822,7 @@
         <v>6.243000428830783</v>
       </c>
       <c r="D32" s="1">
-        <v>10.93892908717316</v>
+        <v>10.93892896796388</v>
       </c>
       <c r="E32" s="1">
         <v>88.92423947270436</v>
@@ -48840,7 +48840,7 @@
         <v>298.3827423437979</v>
       </c>
       <c r="J32" s="1">
-        <v>13.60158372232036</v>
+        <v>13.60158348390178</v>
       </c>
       <c r="K32" s="1">
         <v>413.397331103537</v>
@@ -48882,13 +48882,13 @@
         <v>15.83088093687911</v>
       </c>
       <c r="X32" s="1">
-        <v>14.65387414299767</v>
+        <v>14.65387390457909</v>
       </c>
       <c r="Y32" s="1">
         <v>21.28051605481051</v>
       </c>
       <c r="Z32" s="1">
-        <v>16.71213689115029</v>
+        <v>16.71213688928765</v>
       </c>
       <c r="AA32" s="1">
         <v>32.98802776661978</v>
@@ -48918,13 +48918,13 @@
         <v>40.24430542998016</v>
       </c>
       <c r="AJ32" s="1">
-        <v>1188.577312138346</v>
+        <v>1188.577286865977</v>
       </c>
       <c r="AK32" s="1">
-        <v>1989.80511010679</v>
+        <v>1989.805084834421</v>
       </c>
       <c r="AL32" s="1">
-        <v>3891.513592837226</v>
+        <v>3891.513567564856</v>
       </c>
     </row>
   </sheetData>
@@ -49627,13 +49627,13 @@
         <v>0.07450650632381439</v>
       </c>
       <c r="AJ6" s="1">
-        <v>4.473809242248535</v>
+        <v>4.473808288574219</v>
       </c>
       <c r="AK6" s="1">
-        <v>67.76230067014694</v>
+        <v>67.76229971647263</v>
       </c>
       <c r="AL6" s="1">
-        <v>77.72160929441452</v>
+        <v>77.7216083407402</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -50439,13 +50439,13 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>63.00760269165039</v>
+        <v>63.00761032104492</v>
       </c>
       <c r="AK13" s="1">
-        <v>93.33473205566406</v>
+        <v>93.33473968505859</v>
       </c>
       <c r="AL13" s="1">
-        <v>142.9013862609863</v>
+        <v>142.9013938903809</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -50671,13 +50671,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>6.068332672119141</v>
+        <v>6.068333625793457</v>
       </c>
       <c r="AK15" s="1">
-        <v>35.89712953567505</v>
+        <v>35.89713048934937</v>
       </c>
       <c r="AL15" s="1">
-        <v>51.3525242805481</v>
+        <v>51.35252523422241</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -50787,13 +50787,13 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>2.075106859207153</v>
+        <v>2.075107097625732</v>
       </c>
       <c r="AK16" s="1">
-        <v>8.93793722987175</v>
+        <v>8.937937468290329</v>
       </c>
       <c r="AL16" s="1">
-        <v>64.63492056727409</v>
+        <v>64.63492080569267</v>
       </c>
     </row>
     <row r="17" spans="1:38">
@@ -52643,13 +52643,13 @@
         <v>30.88718076329678</v>
       </c>
       <c r="AJ32" s="1">
-        <v>446.9469699881411</v>
+        <v>446.9469778559542</v>
       </c>
       <c r="AK32" s="1">
-        <v>1034.633319007156</v>
+        <v>1034.633326874969</v>
       </c>
       <c r="AL32" s="1">
-        <v>2053.510943723999</v>
+        <v>2053.510951591812</v>
       </c>
     </row>
   </sheetData>
@@ -53004,13 +53004,13 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>0.6938768029212952</v>
+        <v>0.6938768625259399</v>
       </c>
       <c r="AK3" s="1">
-        <v>10.25125342607498</v>
+        <v>10.25125348567963</v>
       </c>
       <c r="AL3" s="1">
-        <v>39.97445517778397</v>
+        <v>39.97445523738861</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -53468,13 +53468,13 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>12.61098670959473</v>
+        <v>12.61098861694336</v>
       </c>
       <c r="AK7" s="1">
-        <v>12.98023694753647</v>
+        <v>12.9802388548851</v>
       </c>
       <c r="AL7" s="1">
-        <v>41.33417791128159</v>
+        <v>41.33417981863022</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -53607,7 +53607,7 @@
         <v>2.526602268218994</v>
       </c>
       <c r="E9" s="1">
-        <v>8.524762153625488</v>
+        <v>8.524761199951172</v>
       </c>
       <c r="F9" s="1">
         <v>8.631218910217285</v>
@@ -53643,7 +53643,7 @@
         <v>17.49274253845215</v>
       </c>
       <c r="Q9" s="1">
-        <v>51.36503601074219</v>
+        <v>51.36503219604492</v>
       </c>
       <c r="R9" s="1">
         <v>6.252615928649902</v>
@@ -53661,10 +53661,10 @@
         <v>1.541607856750488</v>
       </c>
       <c r="W9" s="1">
-        <v>5.0657057762146</v>
+        <v>5.065705299377441</v>
       </c>
       <c r="X9" s="1">
-        <v>7.412752151489258</v>
+        <v>7.4127516746521</v>
       </c>
       <c r="Y9" s="1">
         <v>1.111093997955322</v>
@@ -53682,7 +53682,7 @@
         <v>62.22809219360352</v>
       </c>
       <c r="AD9" s="1">
-        <v>6.106398105621338</v>
+        <v>6.10639762878418</v>
       </c>
       <c r="AE9" s="1">
         <v>0</v>
@@ -53700,13 +53700,13 @@
         <v>54.67108535766602</v>
       </c>
       <c r="AJ9" s="1">
-        <v>293.48876953125</v>
+        <v>293.4887084960938</v>
       </c>
       <c r="AK9" s="1">
-        <v>559.6040687561035</v>
+        <v>559.6040077209473</v>
       </c>
       <c r="AL9" s="1">
-        <v>1047.19412612915</v>
+        <v>1047.194065093994</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -54280,13 +54280,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>72.48914337158203</v>
+        <v>72.4891357421875</v>
       </c>
       <c r="AK14" s="1">
-        <v>308.4348068237305</v>
+        <v>308.4347991943359</v>
       </c>
       <c r="AL14" s="1">
-        <v>394.6253204345703</v>
+        <v>394.6253128051758</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -54396,13 +54396,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>16.97260475158691</v>
+        <v>16.97260284423828</v>
       </c>
       <c r="AK15" s="1">
-        <v>105.2995748519897</v>
+        <v>105.2995729446411</v>
       </c>
       <c r="AL15" s="1">
-        <v>153.7801694869995</v>
+        <v>153.7801675796509</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -54512,13 +54512,13 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>5.9264235496521</v>
+        <v>5.926424026489258</v>
       </c>
       <c r="AK16" s="1">
-        <v>25.88319501280785</v>
+        <v>25.883195489645</v>
       </c>
       <c r="AL16" s="1">
-        <v>134.8609858453274</v>
+        <v>134.8609863221645</v>
       </c>
     </row>
     <row r="17" spans="1:38">
@@ -56275,7 +56275,7 @@
         <v>14.41461698396142</v>
       </c>
       <c r="E32" s="1">
-        <v>76.20481985718652</v>
+        <v>76.2048189035122</v>
       </c>
       <c r="F32" s="1">
         <v>54.54549398228119</v>
@@ -56311,7 +56311,7 @@
         <v>169.5395714608221</v>
       </c>
       <c r="Q32" s="1">
-        <v>242.7485301967026</v>
+        <v>242.7485263820054</v>
       </c>
       <c r="R32" s="1">
         <v>135.2276357748487</v>
@@ -56329,10 +56329,10 @@
         <v>31.50447025106405</v>
       </c>
       <c r="W32" s="1">
-        <v>36.12499966782343</v>
+        <v>36.12499919098627</v>
       </c>
       <c r="X32" s="1">
-        <v>32.86340832387941</v>
+        <v>32.86340784704225</v>
       </c>
       <c r="Y32" s="1">
         <v>74.82083985837744</v>
@@ -56350,7 +56350,7 @@
         <v>131.0960584484492</v>
       </c>
       <c r="AD32" s="1">
-        <v>44.53140833125508</v>
+        <v>44.53140785441792</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
@@ -56368,13 +56368,13 @@
         <v>88.58695336431265</v>
       </c>
       <c r="AJ32" s="1">
-        <v>1247.08345837432</v>
+        <v>1247.083390246211</v>
       </c>
       <c r="AK32" s="1">
-        <v>3043.884051799927</v>
+        <v>3043.883983671818</v>
       </c>
       <c r="AL32" s="1">
-        <v>5980.095348812327</v>
+        <v>5980.095280684218</v>
       </c>
     </row>
   </sheetData>
@@ -57425,13 +57425,13 @@
         <v>21.96352577209473</v>
       </c>
       <c r="AJ9" s="1">
-        <v>118.0132446289062</v>
+        <v>118.0132293701172</v>
       </c>
       <c r="AK9" s="1">
-        <v>222.8907718658447</v>
+        <v>222.8907566070557</v>
       </c>
       <c r="AL9" s="1">
-        <v>383.0159244537354</v>
+        <v>383.0159091949463</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -57457,7 +57457,7 @@
         <v>1.275525331497192</v>
       </c>
       <c r="H10" s="1">
-        <v>0.03667743876576424</v>
+        <v>0.03667744249105453</v>
       </c>
       <c r="I10" s="1">
         <v>0.1487766653299332</v>
@@ -57475,7 +57475,7 @@
         <v>0.1671076267957687</v>
       </c>
       <c r="N10" s="1">
-        <v>0.1271309405565262</v>
+        <v>0.1271309554576874</v>
       </c>
       <c r="O10" s="1">
         <v>0.1398634314537048</v>
@@ -57490,7 +57490,7 @@
         <v>0.5509878396987915</v>
       </c>
       <c r="S10" s="1">
-        <v>0.0002844625269062817</v>
+        <v>0.0002844625560101122</v>
       </c>
       <c r="T10" s="1">
         <v>0.0004957811324857175</v>
@@ -57499,7 +57499,7 @@
         <v>0.0117962472140789</v>
       </c>
       <c r="V10" s="1">
-        <v>0.01233290694653988</v>
+        <v>0.01233290787786245</v>
       </c>
       <c r="W10" s="1">
         <v>0.0003282406250946224</v>
@@ -57541,13 +57541,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>2.816086530685425</v>
+        <v>2.816086769104004</v>
       </c>
       <c r="AK10" s="1">
-        <v>4.809929370880127</v>
+        <v>4.809929609298706</v>
       </c>
       <c r="AL10" s="1">
-        <v>22.23331117630005</v>
+        <v>22.23331141471863</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -57773,13 +57773,13 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>80.76686859130859</v>
+        <v>80.76688385009766</v>
       </c>
       <c r="AK12" s="1">
-        <v>161.9305801391602</v>
+        <v>161.9305953979492</v>
       </c>
       <c r="AL12" s="1">
-        <v>232.7366943359375</v>
+        <v>232.7367095947266</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -60009,7 +60009,7 @@
         <v>44.02348378722672</v>
       </c>
       <c r="H32" s="1">
-        <v>22.44951306866824</v>
+        <v>22.44951307239353</v>
       </c>
       <c r="I32" s="1">
         <v>102.8471646463913</v>
@@ -60027,7 +60027,7 @@
         <v>100.830459269062</v>
       </c>
       <c r="N32" s="1">
-        <v>17.04562717887347</v>
+        <v>17.04562719377464</v>
       </c>
       <c r="O32" s="1">
         <v>41.29787694703555</v>
@@ -60042,7 +60042,7 @@
         <v>61.06412213310978</v>
       </c>
       <c r="S32" s="1">
-        <v>32.59721653422093</v>
+        <v>32.59721653425004</v>
       </c>
       <c r="T32" s="1">
         <v>16.53584226547218</v>
@@ -60051,7 +60051,7 @@
         <v>22.39552820435347</v>
       </c>
       <c r="V32" s="1">
-        <v>9.797638896550779</v>
+        <v>9.797638897482102</v>
       </c>
       <c r="W32" s="1">
         <v>13.71702721046677</v>
@@ -60093,13 +60093,13 @@
         <v>35.63097057398409</v>
       </c>
       <c r="AJ32" s="1">
-        <v>502.2423409807416</v>
+        <v>502.2423412191602</v>
       </c>
       <c r="AK32" s="1">
-        <v>1191.111799796639</v>
+        <v>1191.111800035058</v>
       </c>
       <c r="AL32" s="1">
-        <v>2238.629550252172</v>
+        <v>2238.62955049059</v>
       </c>
     </row>
   </sheetData>
@@ -60584,7 +60584,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>2.379344701766968</v>
+        <v>2.379344940185547</v>
       </c>
       <c r="C5" s="1">
         <v>0.07482101023197174</v>
@@ -60593,22 +60593,22 @@
         <v>0.0001005322264973074</v>
       </c>
       <c r="E5" s="1">
-        <v>10.28210353851318</v>
+        <v>10.2821044921875</v>
       </c>
       <c r="F5" s="1">
         <v>0.01338762417435646</v>
       </c>
       <c r="G5" s="1">
-        <v>0.01497787702828646</v>
+        <v>0.01497787795960903</v>
       </c>
       <c r="H5" s="1">
-        <v>2.850369930267334</v>
+        <v>2.850370168685913</v>
       </c>
       <c r="I5" s="1">
         <v>3.603068828582764</v>
       </c>
       <c r="J5" s="1">
-        <v>0.004937881603837013</v>
+        <v>0.004937882069498301</v>
       </c>
       <c r="K5" s="1">
         <v>0.0001260002609342337</v>
@@ -60626,49 +60626,49 @@
         <v>0.000400507589802146</v>
       </c>
       <c r="P5" s="1">
-        <v>0.1620416790246964</v>
+        <v>0.1620416939258575</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.4238511919975281</v>
+        <v>0.4238512217998505</v>
       </c>
       <c r="R5" s="1">
         <v>0.08392380923032761</v>
       </c>
       <c r="S5" s="1">
-        <v>1.051223874092102</v>
+        <v>1.051223993301392</v>
       </c>
       <c r="T5" s="1">
         <v>6.272244453430176</v>
       </c>
       <c r="U5" s="1">
-        <v>0.1550311148166656</v>
+        <v>0.1550311297178268</v>
       </c>
       <c r="V5" s="1">
-        <v>0.166212260723114</v>
+        <v>0.1662122756242752</v>
       </c>
       <c r="W5" s="1">
-        <v>0.457177072763443</v>
+        <v>0.4571771025657654</v>
       </c>
       <c r="X5" s="1">
         <v>0.05678191035985947</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.4671673178672791</v>
+        <v>0.4671673476696014</v>
       </c>
       <c r="Z5" s="1">
-        <v>0.8370733261108398</v>
+        <v>0.8370733857154846</v>
       </c>
       <c r="AA5" s="1">
         <v>0.9356377124786377</v>
       </c>
       <c r="AB5" s="1">
-        <v>0.4305930733680725</v>
+        <v>0.4305931031703949</v>
       </c>
       <c r="AC5" s="1">
         <v>1.276659965515137</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.7186607718467712</v>
+        <v>0.718660831451416</v>
       </c>
       <c r="AE5" s="1">
         <v>0</v>
@@ -60686,13 +60686,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>14.57833766937256</v>
+        <v>14.57833957672119</v>
       </c>
       <c r="AK5" s="1">
-        <v>104.3235921859741</v>
+        <v>104.3235940933228</v>
       </c>
       <c r="AL5" s="1">
-        <v>137.0421590805054</v>
+        <v>137.042160987854</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -60802,13 +60802,13 @@
         <v>0.08264924585819244</v>
       </c>
       <c r="AJ6" s="1">
-        <v>16.00764846801758</v>
+        <v>16.00765037536621</v>
       </c>
       <c r="AK6" s="1">
-        <v>84.76052652299404</v>
+        <v>84.76052843034267</v>
       </c>
       <c r="AL6" s="1">
-        <v>96.88229738175869</v>
+        <v>96.88229928910732</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -61090,7 +61090,7 @@
         <v>1.422011852264404</v>
       </c>
       <c r="P9" s="1">
-        <v>5.710760593414307</v>
+        <v>5.710760116577148</v>
       </c>
       <c r="Q9" s="1">
         <v>22.03353309631348</v>
@@ -61102,13 +61102,13 @@
         <v>32.87575149536133</v>
       </c>
       <c r="T9" s="1">
-        <v>0.05103837326169014</v>
+        <v>0.05103836953639984</v>
       </c>
       <c r="U9" s="1">
         <v>0.07627929747104645</v>
       </c>
       <c r="V9" s="1">
-        <v>0.3179011642932892</v>
+        <v>0.3179011344909668</v>
       </c>
       <c r="W9" s="1">
         <v>1.843719482421875</v>
@@ -61150,13 +61150,13 @@
         <v>20.49972343444824</v>
       </c>
       <c r="AJ9" s="1">
-        <v>363.2529602050781</v>
+        <v>363.2528991699219</v>
       </c>
       <c r="AK9" s="1">
-        <v>461.9366054534912</v>
+        <v>461.936544418335</v>
       </c>
       <c r="AL9" s="1">
-        <v>719.2840785980225</v>
+        <v>719.2840175628662</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -61266,13 +61266,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>8.60191535949707</v>
+        <v>8.601917266845703</v>
       </c>
       <c r="AK10" s="1">
-        <v>10.46287548542023</v>
+        <v>10.46287739276886</v>
       </c>
       <c r="AL10" s="1">
-        <v>29.19175732135773</v>
+        <v>29.19175922870636</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -61846,13 +61846,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>21.99479484558105</v>
+        <v>21.99479103088379</v>
       </c>
       <c r="AK15" s="1">
-        <v>57.03371334075928</v>
+        <v>57.03370952606201</v>
       </c>
       <c r="AL15" s="1">
-        <v>76.74428462982178</v>
+        <v>76.74428081512451</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -63716,7 +63716,7 @@
         <v>37</v>
       </c>
       <c r="B32" s="1">
-        <v>14.72202763399764</v>
+        <v>14.72202787241622</v>
       </c>
       <c r="C32" s="1">
         <v>6.870687373655869</v>
@@ -63725,22 +63725,22 @@
         <v>6.188718344071276</v>
       </c>
       <c r="E32" s="1">
-        <v>35.29302191130409</v>
+        <v>35.29302286497841</v>
       </c>
       <c r="F32" s="1">
         <v>3.976547652725003</v>
       </c>
       <c r="G32" s="1">
-        <v>10.65925814029288</v>
+        <v>10.6592581412242</v>
       </c>
       <c r="H32" s="1">
-        <v>170.0172157756606</v>
+        <v>170.0172160140792</v>
       </c>
       <c r="I32" s="1">
         <v>241.2812530284027</v>
       </c>
       <c r="J32" s="1">
-        <v>17.1487770062522</v>
+        <v>17.14877700671786</v>
       </c>
       <c r="K32" s="1">
         <v>31.7615532088148</v>
@@ -63758,49 +63758,49 @@
         <v>16.84323827086155</v>
       </c>
       <c r="P32" s="1">
-        <v>53.57069562134484</v>
+        <v>53.57069515940884</v>
       </c>
       <c r="Q32" s="1">
-        <v>102.942340035451</v>
+        <v>102.9423400652533</v>
       </c>
       <c r="R32" s="1">
         <v>39.4345967014051</v>
       </c>
       <c r="S32" s="1">
-        <v>76.75376324513491</v>
+        <v>76.75376336434419</v>
       </c>
       <c r="T32" s="1">
-        <v>13.15040241842735</v>
+        <v>13.15040241470206</v>
       </c>
       <c r="U32" s="1">
-        <v>11.85848764252296</v>
+        <v>11.85848765742412</v>
       </c>
       <c r="V32" s="1">
-        <v>6.352828130298803</v>
+        <v>6.352828115397642</v>
       </c>
       <c r="W32" s="1">
-        <v>12.74162624850578</v>
+        <v>12.7416262783081</v>
       </c>
       <c r="X32" s="1">
         <v>11.78923652385856</v>
       </c>
       <c r="Y32" s="1">
-        <v>21.66299276160407</v>
+        <v>21.6629927914064</v>
       </c>
       <c r="Z32" s="1">
-        <v>16.91330054769423</v>
+        <v>16.91330060729888</v>
       </c>
       <c r="AA32" s="1">
         <v>30.14975170931211</v>
       </c>
       <c r="AB32" s="1">
-        <v>7.582003514502503</v>
+        <v>7.582003544304825</v>
       </c>
       <c r="AC32" s="1">
         <v>48.54845541569193</v>
       </c>
       <c r="AD32" s="1">
-        <v>13.67027421900275</v>
+        <v>13.67027427860739</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
@@ -63818,13 +63818,13 @@
         <v>32.72058131080121</v>
       </c>
       <c r="AJ32" s="1">
-        <v>1528.279154493779</v>
+        <v>1528.279095365971</v>
       </c>
       <c r="AK32" s="1">
-        <v>2260.1335295225</v>
+        <v>2260.133470394692</v>
       </c>
       <c r="AL32" s="1">
-        <v>3359.408540008517</v>
+        <v>3359.408480880709</v>
       </c>
     </row>
   </sheetData>
@@ -64425,22 +64425,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.007121745031327009</v>
+        <v>0.007121744565665722</v>
       </c>
       <c r="C6" s="1">
-        <v>0.02067906223237514</v>
+        <v>0.02067906036973</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02262834087014198</v>
+        <v>0.02262833714485168</v>
       </c>
       <c r="F6" s="1">
         <v>0.573915421962738</v>
       </c>
       <c r="G6" s="1">
-        <v>0.02013254538178444</v>
+        <v>0.02013254351913929</v>
       </c>
       <c r="H6" s="1">
         <v>0.4769801199436188</v>
@@ -64449,19 +64449,19 @@
         <v>0.1350817680358887</v>
       </c>
       <c r="J6" s="1">
-        <v>0.4186472296714783</v>
+        <v>0.4186471998691559</v>
       </c>
       <c r="K6" s="1">
-        <v>0.02680209279060364</v>
+        <v>0.02680209092795849</v>
       </c>
       <c r="L6" s="1">
-        <v>0.004771698266267776</v>
+        <v>0.004771697800606489</v>
       </c>
       <c r="M6" s="1">
-        <v>0.02092213369905949</v>
+        <v>0.02092213183641434</v>
       </c>
       <c r="N6" s="1">
-        <v>0.002161814831197262</v>
+        <v>0.002161814598366618</v>
       </c>
       <c r="O6" s="1">
         <v>0.4199467599391937</v>
@@ -64479,16 +64479,16 @@
         <v>0.3203299641609192</v>
       </c>
       <c r="T6" s="1">
-        <v>0.06325915455818176</v>
+        <v>0.06325914710760117</v>
       </c>
       <c r="U6" s="1">
         <v>0.07662504911422729</v>
       </c>
       <c r="V6" s="1">
-        <v>0.1023684814572334</v>
+        <v>0.1023684740066528</v>
       </c>
       <c r="W6" s="1">
-        <v>0.08248023688793182</v>
+        <v>0.08248022943735123</v>
       </c>
       <c r="X6" s="1">
         <v>0.009823830798268318</v>
@@ -64497,19 +64497,19 @@
         <v>0.7166256904602051</v>
       </c>
       <c r="Z6" s="1">
-        <v>0.2902788519859314</v>
+        <v>0.290278822183609</v>
       </c>
       <c r="AA6" s="1">
         <v>0.3918556571006775</v>
       </c>
       <c r="AB6" s="1">
-        <v>0.08957573771476746</v>
+        <v>0.08957573026418686</v>
       </c>
       <c r="AC6" s="1">
-        <v>0.7210674285888672</v>
+        <v>0.7210673689842224</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.2715472280979156</v>
+        <v>0.2715471982955933</v>
       </c>
       <c r="AE6" s="1">
         <v>0</v>
@@ -64524,16 +64524,16 @@
         <v>0.1134623885154724</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.05659441649913788</v>
+        <v>0.05659441277384758</v>
       </c>
       <c r="AJ6" s="1">
-        <v>4.059197902679443</v>
+        <v>4.059196472167969</v>
       </c>
       <c r="AK6" s="1">
-        <v>50.79216669499874</v>
+        <v>50.79216526076198</v>
       </c>
       <c r="AL6" s="1">
-        <v>58.84946440160275</v>
+        <v>58.84946296736598</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -64875,13 +64875,13 @@
         <v>14.50731563568115</v>
       </c>
       <c r="AJ9" s="1">
-        <v>94.43972015380859</v>
+        <v>94.43971252441406</v>
       </c>
       <c r="AK9" s="1">
-        <v>163.938422203064</v>
+        <v>163.9384145736694</v>
       </c>
       <c r="AL9" s="1">
-        <v>359.1824712753296</v>
+        <v>359.1824636459351</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -65472,7 +65472,7 @@
         <v>0.05553880333900452</v>
       </c>
       <c r="C15" s="1">
-        <v>0.007783460896462202</v>
+        <v>0.007783460430800915</v>
       </c>
       <c r="D15" s="1">
         <v>0.05953245609998703</v>
@@ -65484,19 +65484,19 @@
         <v>0.02533394284546375</v>
       </c>
       <c r="G15" s="1">
-        <v>0.100595086812973</v>
+        <v>0.1005950793623924</v>
       </c>
       <c r="H15" s="1">
         <v>3.386299610137939</v>
       </c>
       <c r="I15" s="1">
-        <v>0.07686300575733185</v>
+        <v>0.07686299830675125</v>
       </c>
       <c r="J15" s="1">
         <v>0.1270895600318909</v>
       </c>
       <c r="K15" s="1">
-        <v>0.1388566642999649</v>
+        <v>0.1388566493988037</v>
       </c>
       <c r="L15" s="1">
         <v>0.02680870145559311</v>
@@ -65511,16 +65511,16 @@
         <v>1.679495573043823</v>
       </c>
       <c r="P15" s="1">
-        <v>1.777118563652039</v>
+        <v>1.777118444442749</v>
       </c>
       <c r="Q15" s="1">
-        <v>1.613545060157776</v>
+        <v>1.613544940948486</v>
       </c>
       <c r="R15" s="1">
-        <v>0.1569393128156662</v>
+        <v>0.156939297914505</v>
       </c>
       <c r="S15" s="1">
-        <v>0.3345363140106201</v>
+        <v>0.3345362842082977</v>
       </c>
       <c r="T15" s="1">
         <v>0.1440585553646088</v>
@@ -65571,13 +65571,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>5.658321380615234</v>
+        <v>5.658320426940918</v>
       </c>
       <c r="AK15" s="1">
-        <v>29.17543411254883</v>
+        <v>29.17543315887451</v>
       </c>
       <c r="AL15" s="1">
-        <v>45.65836143493652</v>
+        <v>45.65836048126221</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -65687,13 +65687,13 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>1.887058019638062</v>
+        <v>1.887058138847351</v>
       </c>
       <c r="AK16" s="1">
-        <v>7.037668853998184</v>
+        <v>7.037668973207474</v>
       </c>
       <c r="AL16" s="1">
-        <v>51.62862649559975</v>
+        <v>51.62862661480904</v>
       </c>
     </row>
     <row r="17" spans="1:38">
@@ -67441,70 +67441,70 @@
         <v>37</v>
       </c>
       <c r="B32" s="1">
-        <v>11.25957244012079</v>
+        <v>11.25957243965513</v>
       </c>
       <c r="C32" s="1">
-        <v>7.854453543146747</v>
+        <v>7.85445354081844</v>
       </c>
       <c r="D32" s="1">
         <v>12.9241852170444</v>
       </c>
       <c r="E32" s="1">
-        <v>16.75605959094264</v>
+        <v>16.75605958721735</v>
       </c>
       <c r="F32" s="1">
         <v>0.871855295409091</v>
       </c>
       <c r="G32" s="1">
-        <v>19.71197168967774</v>
+        <v>19.71197168036451</v>
       </c>
       <c r="H32" s="1">
         <v>222.6767960825819</v>
       </c>
       <c r="I32" s="1">
-        <v>92.84625628721278</v>
+        <v>92.8462562797622</v>
       </c>
       <c r="J32" s="1">
-        <v>24.23158586016871</v>
+        <v>24.23158583036638</v>
       </c>
       <c r="K32" s="1">
-        <v>46.00045992277228</v>
+        <v>46.00045990600847</v>
       </c>
       <c r="L32" s="1">
-        <v>5.301129386674347</v>
+        <v>5.301129386208686</v>
       </c>
       <c r="M32" s="1">
-        <v>25.66440077164953</v>
+        <v>25.66440076978688</v>
       </c>
       <c r="N32" s="1">
-        <v>1.121827096781118</v>
+        <v>1.121827096548287</v>
       </c>
       <c r="O32" s="1">
         <v>16.24685236356163</v>
       </c>
       <c r="P32" s="1">
-        <v>91.41338771746177</v>
+        <v>91.41338759825248</v>
       </c>
       <c r="Q32" s="1">
-        <v>64.85383797217889</v>
+        <v>64.8538378529696</v>
       </c>
       <c r="R32" s="1">
-        <v>32.9214257776257</v>
+        <v>32.92142576272454</v>
       </c>
       <c r="S32" s="1">
-        <v>27.30412387393335</v>
+        <v>27.30412384413103</v>
       </c>
       <c r="T32" s="1">
-        <v>11.49289942254131</v>
+        <v>11.49289941509073</v>
       </c>
       <c r="U32" s="1">
         <v>9.378050418412386</v>
       </c>
       <c r="V32" s="1">
-        <v>5.197060200927808</v>
+        <v>5.197060193477228</v>
       </c>
       <c r="W32" s="1">
-        <v>9.403733542958435</v>
+        <v>9.403733535507854</v>
       </c>
       <c r="X32" s="1">
         <v>8.488943676815325</v>
@@ -67513,19 +67513,19 @@
         <v>22.01607827013731</v>
       </c>
       <c r="Z32" s="1">
-        <v>7.258027048013901</v>
+        <v>7.258027018211578</v>
       </c>
       <c r="AA32" s="1">
         <v>25.03063056332394</v>
       </c>
       <c r="AB32" s="1">
-        <v>6.434068783200928</v>
+        <v>6.434068775750347</v>
       </c>
       <c r="AC32" s="1">
-        <v>34.40969135238083</v>
+        <v>34.40969129277619</v>
       </c>
       <c r="AD32" s="1">
-        <v>9.732190918562992</v>
+        <v>9.73219088876067</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
@@ -67540,16 +67540,16 @@
         <v>108.8349964693189</v>
       </c>
       <c r="AI32" s="1">
-        <v>23.42971703177318</v>
+        <v>23.42971702804789</v>
       </c>
       <c r="AJ32" s="1">
-        <v>400.3112045738471</v>
+        <v>400.3111946794761</v>
       </c>
       <c r="AK32" s="1">
-        <v>868.3721922712011</v>
+        <v>868.3721823731048</v>
       </c>
       <c r="AL32" s="1">
-        <v>1737.173732814294</v>
+        <v>1737.173722916197</v>
       </c>
     </row>
   </sheetData>
@@ -67788,13 +67788,13 @@
         <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>0.8720998764038086</v>
+        <v>0.8720998167991638</v>
       </c>
       <c r="AK2" s="1">
-        <v>15.42199012637138</v>
+        <v>15.42199006676674</v>
       </c>
       <c r="AL2" s="1">
-        <v>27.97722598910332</v>
+        <v>27.97722592949867</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -68136,13 +68136,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>1.138245701789856</v>
+        <v>1.138245582580566</v>
       </c>
       <c r="AK5" s="1">
-        <v>72.44614517688751</v>
+        <v>72.44614505767822</v>
       </c>
       <c r="AL5" s="1">
-        <v>92.21040832996368</v>
+        <v>92.21040821075439</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -68252,13 +68252,13 @@
         <v>0.06302493810653687</v>
       </c>
       <c r="AJ6" s="1">
-        <v>1.180994510650635</v>
+        <v>1.180994391441345</v>
       </c>
       <c r="AK6" s="1">
-        <v>52.97225832939148</v>
+        <v>52.97225821018219</v>
       </c>
       <c r="AL6" s="1">
-        <v>62.95898509025574</v>
+        <v>62.95898497104645</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -68600,13 +68600,13 @@
         <v>15.93668651580811</v>
       </c>
       <c r="AJ9" s="1">
-        <v>27.46141815185547</v>
+        <v>27.4614143371582</v>
       </c>
       <c r="AK9" s="1">
-        <v>103.5860776901245</v>
+        <v>103.5860738754272</v>
       </c>
       <c r="AL9" s="1">
-        <v>206.1912183761597</v>
+        <v>206.1912145614624</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -68716,13 +68716,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>0.6663070917129517</v>
+        <v>0.6663071513175964</v>
       </c>
       <c r="AK10" s="1">
-        <v>2.139594078063965</v>
+        <v>2.13959413766861</v>
       </c>
       <c r="AL10" s="1">
-        <v>14.69761276245117</v>
+        <v>14.69761282205582</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -68948,13 +68948,13 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>18.79934692382812</v>
+        <v>18.79934501647949</v>
       </c>
       <c r="AK12" s="1">
-        <v>72.53773021697998</v>
+        <v>72.53772830963135</v>
       </c>
       <c r="AL12" s="1">
-        <v>107.7153882980347</v>
+        <v>107.715386390686</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -69064,13 +69064,13 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>16.80102729797363</v>
+        <v>16.801025390625</v>
       </c>
       <c r="AK13" s="1">
-        <v>41.33405637741089</v>
+        <v>41.33405447006226</v>
       </c>
       <c r="AL13" s="1">
-        <v>63.38382291793823</v>
+        <v>63.3838210105896</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -69412,13 +69412,13 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>0.5764076113700867</v>
+        <v>0.5764076709747314</v>
       </c>
       <c r="AK16" s="1">
-        <v>6.473240256309509</v>
+        <v>6.473240315914154</v>
       </c>
       <c r="AL16" s="1">
-        <v>30.64225423336029</v>
+        <v>30.64225429296494</v>
       </c>
     </row>
     <row r="17" spans="1:38">
@@ -71268,13 +71268,13 @@
         <v>26.19212975353003</v>
       </c>
       <c r="AJ32" s="1">
-        <v>118.568398409057</v>
+        <v>118.5683906008485</v>
       </c>
       <c r="AK32" s="1">
-        <v>598.7311065033714</v>
+        <v>598.7310986951629</v>
       </c>
       <c r="AL32" s="1">
-        <v>1149.449331191863</v>
+        <v>1149.449323383654</v>
       </c>
     </row>
   </sheetData>

--- a/outdata/use_imp2014.xlsx
+++ b/outdata/use_imp2014.xlsx
@@ -34509,7 +34509,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>2.272457599639893</v>
+        <v>2.272457361221313</v>
       </c>
       <c r="C5" s="1">
         <v>0.08580990135669708</v>
@@ -34527,16 +34527,16 @@
         <v>0.01369051449000835</v>
       </c>
       <c r="H5" s="1">
-        <v>1.784062027931213</v>
+        <v>1.784061908721924</v>
       </c>
       <c r="I5" s="1">
-        <v>0.2592446506023407</v>
+        <v>0.2592446208000183</v>
       </c>
       <c r="J5" s="1">
         <v>0.002856301609426737</v>
       </c>
       <c r="K5" s="1">
-        <v>0.002701288321986794</v>
+        <v>0.002701288089156151</v>
       </c>
       <c r="L5" s="1">
         <v>4.914397322863806e-06</v>
@@ -34554,28 +34554,28 @@
         <v>0.17270427942276</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.3002400398254395</v>
+        <v>0.3002400100231171</v>
       </c>
       <c r="R5" s="1">
-        <v>0.08972721546888351</v>
+        <v>0.08972720801830292</v>
       </c>
       <c r="S5" s="1">
-        <v>0.4413442611694336</v>
+        <v>0.4413442313671112</v>
       </c>
       <c r="T5" s="1">
-        <v>12.05653285980225</v>
+        <v>12.05653190612793</v>
       </c>
       <c r="U5" s="1">
-        <v>0.1466932445764542</v>
+        <v>0.146693229675293</v>
       </c>
       <c r="V5" s="1">
-        <v>0.1689746230840683</v>
+        <v>0.1689746081829071</v>
       </c>
       <c r="W5" s="1">
         <v>0.4679007530212402</v>
       </c>
       <c r="X5" s="1">
-        <v>0.05500101298093796</v>
+        <v>0.05500100925564766</v>
       </c>
       <c r="Y5" s="1">
         <v>0.3943002820014954</v>
@@ -34584,7 +34584,7 @@
         <v>0.6384576559066772</v>
       </c>
       <c r="AA5" s="1">
-        <v>1.067618489265442</v>
+        <v>1.067618370056152</v>
       </c>
       <c r="AB5" s="1">
         <v>0.5000289678573608</v>
@@ -34593,13 +34593,13 @@
         <v>1.246866464614868</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.7495617866516113</v>
+        <v>0.7495617270469666</v>
       </c>
       <c r="AE5" s="1">
         <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>25.6061840057373</v>
+        <v>25.60617828369141</v>
       </c>
       <c r="AG5" s="1">
         <v>86.90083312988281</v>
@@ -34617,7 +34617,7 @@
         <v>96.62875175476074</v>
       </c>
       <c r="AL5" s="1">
-        <v>122.234935760498</v>
+        <v>122.2349300384521</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -37641,7 +37641,7 @@
         <v>37</v>
       </c>
       <c r="B32" s="1">
-        <v>14.19557918033684</v>
+        <v>14.19557894191826</v>
       </c>
       <c r="C32" s="1">
         <v>7.978265436497395</v>
@@ -37659,16 +37659,16 @@
         <v>9.862272303937061</v>
       </c>
       <c r="H32" s="1">
-        <v>107.4997998429608</v>
+        <v>107.4997997237515</v>
       </c>
       <c r="I32" s="1">
-        <v>17.61155673310236</v>
+        <v>17.61155670330004</v>
       </c>
       <c r="J32" s="1">
         <v>10.02028893462557</v>
       </c>
       <c r="K32" s="1">
-        <v>686.6553191475105</v>
+        <v>686.6553191472776</v>
       </c>
       <c r="L32" s="1">
         <v>0.6983846246411645</v>
@@ -37686,28 +37686,28 @@
         <v>57.78797453151901</v>
       </c>
       <c r="Q32" s="1">
-        <v>73.56716613248011</v>
+        <v>73.56716610267779</v>
       </c>
       <c r="R32" s="1">
-        <v>42.75372277573115</v>
+        <v>42.75372276828057</v>
       </c>
       <c r="S32" s="1">
-        <v>32.57641347531262</v>
+        <v>32.5764134455103</v>
       </c>
       <c r="T32" s="1">
-        <v>25.42868859914506</v>
+        <v>25.42868764547075</v>
       </c>
       <c r="U32" s="1">
-        <v>11.3886648974476</v>
+        <v>11.38866488254644</v>
       </c>
       <c r="V32" s="1">
-        <v>6.536155021445666</v>
+        <v>6.536155006544504</v>
       </c>
       <c r="W32" s="1">
         <v>13.05780584789318</v>
       </c>
       <c r="X32" s="1">
-        <v>11.47941804272705</v>
+        <v>11.47941803900176</v>
       </c>
       <c r="Y32" s="1">
         <v>18.50477715922761</v>
@@ -37716,7 +37716,7 @@
         <v>13.00252748331422</v>
       </c>
       <c r="AA32" s="1">
-        <v>34.7884109929837</v>
+        <v>34.78841087377441</v>
       </c>
       <c r="AB32" s="1">
         <v>8.890246027393005</v>
@@ -37725,13 +37725,13 @@
         <v>47.71306973241553</v>
       </c>
       <c r="AD32" s="1">
-        <v>14.38921776221832</v>
+        <v>14.38921770261368</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>1420.624571557972</v>
+        <v>1420.624565835926</v>
       </c>
       <c r="AG32" s="1">
         <v>464.134068753905</v>
@@ -37749,7 +37749,7 @@
         <v>1691.122224779334</v>
       </c>
       <c r="AL32" s="1">
-        <v>3111.746796337306</v>
+        <v>3111.74679061526</v>
       </c>
     </row>
   </sheetData>
